--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530485.7179775982</v>
+        <v>526770.6017054262</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24649249.95910109</v>
+        <v>24649249.95910111</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6055880.534322848</v>
+        <v>6055880.534322849</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>47.99182958842665</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>237.1911584823837</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -752,10 +752,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>65.74704580780735</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>25.47614404854905</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>104.0680196890835</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>18.43716141372179</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>42.20460979736283</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>337.9664363785602</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>53.14481670759386</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1040,7 +1040,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>134.4763845142394</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.868256814462962</v>
+        <v>5.153930197232643</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>49.77717359470656</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>75.65326825666104</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1220,7 +1220,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>76.28872613302771</v>
       </c>
       <c r="F9" t="n">
         <v>92.70937201392488</v>
@@ -1274,7 +1274,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
-        <v>167.1899751383507</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
         <v>161.8425727710037</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.428656073034465</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>73.8544924301443</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>174.0106570847547</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T11" t="n">
-        <v>98.29046923171288</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6485907695674</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.1565326215866</v>
+        <v>96.64993593827064</v>
       </c>
       <c r="U13" t="n">
         <v>277.3450561584638</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>99.25168034835126</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,7 +1624,7 @@
         <v>398.7610525366413</v>
       </c>
       <c r="H14" t="n">
-        <v>120.3478939962603</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>81.36349678757662</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9060226444024</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>237.9647055579529</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3450561584638</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9326187047558</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>242.7101276865392</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.7610525366413</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>279.173275348645</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>221.016419853141</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>187.7902723943341</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.44466455350688</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9060226444024</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.4371569389832</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.9647055579529</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3450561584638</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>270.0722234922645</v>
       </c>
       <c r="G20" t="n">
-        <v>216.3839453733473</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>279.173275348645</v>
@@ -2140,13 +2140,13 @@
         <v>255.6485907695674</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>118.888502071634</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.2545717897855</v>
+        <v>163.9060226444024</v>
       </c>
       <c r="H22" t="n">
-        <v>136.2380052406268</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.4371569389832</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3450561584638</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>58.29720541531812</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.7610525366413</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>279.173275348645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.9985194797939</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6485907695674</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>339.5156171123876</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>53.46180211713166</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,10 +2493,10 @@
         <v>163.9060226444024</v>
       </c>
       <c r="H25" t="n">
-        <v>136.2380052406268</v>
+        <v>121.7019777428447</v>
       </c>
       <c r="I25" t="n">
-        <v>78.0694978395793</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.4371569389832</v>
@@ -2566,10 +2566,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.7610525366413</v>
+        <v>68.02007374392542</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.9985194797939</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>328.7683207718413</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>163.9060226444024</v>
       </c>
       <c r="H28" t="n">
-        <v>28.01620221326146</v>
+        <v>106.0857000528407</v>
       </c>
       <c r="I28" t="n">
-        <v>78.0694978395793</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>199.8529865578235</v>
+        <v>43.26828157241558</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.7610525366413</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>279.173275348645</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T29" t="n">
         <v>211.9985194797939</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6485907695674</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>53.46180211713166</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>136.2380052406268</v>
       </c>
       <c r="I31" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>156.4371569389832</v>
@@ -3006,7 +3006,7 @@
         <v>237.9647055579529</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3450561584638</v>
+        <v>184.7395308211026</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>317.1718386937547</v>
+        <v>274.7808190451268</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.7610525366413</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>68.35348503067047</v>
       </c>
       <c r="T32" t="n">
-        <v>211.9985194797939</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6485907695674</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.04250599757971</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3207,7 +3207,7 @@
         <v>136.2380052406268</v>
       </c>
       <c r="I34" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.4371569389832</v>
       </c>
       <c r="T34" t="n">
-        <v>237.9647055579529</v>
+        <v>145.3591802205917</v>
       </c>
       <c r="U34" t="n">
         <v>277.3450561584638</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>320.5816526519897</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>279.173275348645</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.6485907695674</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>328.0053833284204</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>61.92135345581986</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.9060226444024</v>
       </c>
       <c r="H37" t="n">
-        <v>136.2380052406268</v>
+        <v>106.0857000528407</v>
       </c>
       <c r="I37" t="n">
-        <v>78.0694978395793</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>250.706682247277</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.7610525366413</v>
+        <v>142.1298194217908</v>
       </c>
       <c r="H38" t="n">
         <v>279.173275348645</v>
@@ -3562,16 +3562,16 @@
         <v>255.6485907695674</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>56.32432076130966</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.9060226444024</v>
       </c>
       <c r="H40" t="n">
-        <v>28.01620221326146</v>
+        <v>136.2380052406268</v>
       </c>
       <c r="I40" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>156.2717741144756</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,7 +3757,7 @@
         <v>398.7610525366413</v>
       </c>
       <c r="H41" t="n">
-        <v>96.70589137938141</v>
+        <v>279.173275348645</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>255.6485907695674</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>61.92135345581986</v>
+        <v>155.6071289854031</v>
       </c>
       <c r="G43" t="n">
         <v>163.9060226444024</v>
@@ -3918,7 +3918,7 @@
         <v>136.2380052406268</v>
       </c>
       <c r="I43" t="n">
-        <v>78.0694978395793</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>156.4371569389832</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>371.4650961264472</v>
       </c>
       <c r="G44" t="n">
         <v>398.7610525366413</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.35348503067047</v>
       </c>
       <c r="T44" t="n">
-        <v>81.48521429507817</v>
+        <v>211.9985194797939</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6485907695674</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>53.46180211713166</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>55.68421961703703</v>
+        <v>163.9060226444024</v>
       </c>
       <c r="H46" t="n">
         <v>136.2380052406268</v>
       </c>
       <c r="I46" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>823.688154712398</v>
+        <v>887.8094047381965</v>
       </c>
       <c r="C2" t="n">
-        <v>396.7874247256981</v>
+        <v>460.9086747514966</v>
       </c>
       <c r="D2" t="n">
-        <v>377.5352079511024</v>
+        <v>412.4320792076313</v>
       </c>
       <c r="E2" t="n">
-        <v>355.5986721393641</v>
+        <v>390.4955433958929</v>
       </c>
       <c r="F2" t="n">
-        <v>334.5148943691684</v>
+        <v>369.4117656256972</v>
       </c>
       <c r="G2" t="n">
-        <v>334.216235999021</v>
+        <v>369.1131072555498</v>
       </c>
       <c r="H2" t="n">
-        <v>36.34785747305587</v>
+        <v>71.24472872958466</v>
       </c>
       <c r="I2" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="J2" t="n">
-        <v>36.34785747305587</v>
+        <v>398.9513162899514</v>
       </c>
       <c r="K2" t="n">
-        <v>350.4223300836918</v>
+        <v>800.2270663127581</v>
       </c>
       <c r="L2" t="n">
-        <v>800.2270663127582</v>
+        <v>800.2270663127581</v>
       </c>
       <c r="M2" t="n">
-        <v>800.2270663127582</v>
+        <v>800.2270663127581</v>
       </c>
       <c r="N2" t="n">
-        <v>800.2270663127582</v>
+        <v>800.2270663127581</v>
       </c>
       <c r="O2" t="n">
-        <v>800.2270663127582</v>
+        <v>1250.031802541825</v>
       </c>
       <c r="P2" t="n">
-        <v>1250.031802541825</v>
+        <v>1699.836538770891</v>
       </c>
       <c r="Q2" t="n">
         <v>1699.836538770891</v>
       </c>
       <c r="R2" t="n">
-        <v>1817.392873652793</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S2" t="n">
         <v>1713.025579525934</v>
       </c>
       <c r="T2" t="n">
-        <v>1492.100008570567</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="U2" t="n">
-        <v>1492.100008570567</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="V2" t="n">
-        <v>1492.100008570567</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="W2" t="n">
-        <v>1252.512979800483</v>
+        <v>1316.634229826281</v>
       </c>
       <c r="X2" t="n">
-        <v>1244.833385008634</v>
+        <v>1308.954635034432</v>
       </c>
       <c r="Y2" t="n">
-        <v>1243.536519003928</v>
+        <v>1307.657769029727</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>575.8287341037387</v>
+        <v>575.828734103739</v>
       </c>
       <c r="C3" t="n">
-        <v>458.3228306212435</v>
+        <v>458.3228306212437</v>
       </c>
       <c r="D3" t="n">
-        <v>354.4828721365285</v>
+        <v>354.4828721365287</v>
       </c>
       <c r="E3" t="n">
-        <v>249.7809384094657</v>
+        <v>249.7809384094659</v>
       </c>
       <c r="F3" t="n">
-        <v>156.1351080923699</v>
+        <v>156.1351080923701</v>
       </c>
       <c r="G3" t="n">
-        <v>89.72395071074628</v>
+        <v>62.08133630997411</v>
       </c>
       <c r="H3" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="I3" t="n">
-        <v>43.79450043496771</v>
+        <v>43.79450043496772</v>
       </c>
       <c r="J3" t="n">
         <v>315.4919897145588</v>
@@ -4415,25 +4415,25 @@
         <v>765.2967259436252</v>
       </c>
       <c r="L3" t="n">
-        <v>835.7640911099573</v>
+        <v>917.7834011946607</v>
       </c>
       <c r="M3" t="n">
-        <v>835.7640911099573</v>
+        <v>1367.588137423727</v>
       </c>
       <c r="N3" t="n">
-        <v>835.7640911099573</v>
+        <v>1367.588137423727</v>
       </c>
       <c r="O3" t="n">
-        <v>1285.568827339024</v>
+        <v>1367.588137423727</v>
       </c>
       <c r="P3" t="n">
-        <v>1735.37356356809</v>
+        <v>1367.588137423727</v>
       </c>
       <c r="Q3" t="n">
-        <v>1735.37356356809</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="R3" t="n">
-        <v>1817.392873652793</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S3" t="n">
         <v>1736.068626214048</v>
@@ -4451,10 +4451,10 @@
         <v>1007.925978403846</v>
       </c>
       <c r="X3" t="n">
-        <v>844.4486321705091</v>
+        <v>844.4486321705093</v>
       </c>
       <c r="Y3" t="n">
-        <v>704.7557435238015</v>
+        <v>704.7557435238017</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>886.5294478732403</v>
+        <v>828.099137167075</v>
       </c>
       <c r="C4" t="n">
-        <v>714.5568847521563</v>
+        <v>656.126574045991</v>
       </c>
       <c r="D4" t="n">
-        <v>551.240111878927</v>
+        <v>492.8098011727617</v>
       </c>
       <c r="E4" t="n">
-        <v>385.0319060317805</v>
+        <v>326.6015953256152</v>
       </c>
       <c r="F4" t="n">
-        <v>385.0319060317805</v>
+        <v>154.7398211001756</v>
       </c>
       <c r="G4" t="n">
-        <v>279.9126942246255</v>
+        <v>154.7398211001756</v>
       </c>
       <c r="H4" t="n">
         <v>136.1164257327799</v>
@@ -4488,52 +4488,52 @@
         <v>36.34785747305587</v>
       </c>
       <c r="J4" t="n">
-        <v>93.83918569721388</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="K4" t="n">
-        <v>275.6880969640808</v>
+        <v>262.875458678893</v>
       </c>
       <c r="L4" t="n">
-        <v>275.6880969640808</v>
+        <v>617.5647799733138</v>
       </c>
       <c r="M4" t="n">
-        <v>666.8738919343316</v>
+        <v>957.4731038562329</v>
       </c>
       <c r="N4" t="n">
-        <v>1044.365402810367</v>
+        <v>1334.964614732269</v>
       </c>
       <c r="O4" t="n">
-        <v>1399.793531490131</v>
+        <v>1690.392743412032</v>
       </c>
       <c r="P4" t="n">
-        <v>1690.392743412031</v>
+        <v>1690.392743412032</v>
       </c>
       <c r="Q4" t="n">
-        <v>1817.392873652793</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="R4" t="n">
-        <v>1770.354260339967</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S4" t="n">
-        <v>1600.219212859102</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="T4" t="n">
-        <v>1356.879865085002</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="U4" t="n">
-        <v>1076.695416585306</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="V4" t="n">
-        <v>1076.695416585306</v>
+        <v>1535.681406260823</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.695416585306</v>
+        <v>1260.829002433336</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.695416585306</v>
+        <v>1018.265105879141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.695416585306</v>
+        <v>1018.265105879141</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1792.608452605113</v>
+        <v>880.1603503974457</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.977533617878</v>
+        <v>453.2596204107458</v>
       </c>
       <c r="D5" t="n">
-        <v>1326.684912802878</v>
+        <v>434.0074036361501</v>
       </c>
       <c r="E5" t="n">
-        <v>900.7079729507359</v>
+        <v>92.62716486992767</v>
       </c>
       <c r="F5" t="n">
-        <v>475.583791140136</v>
+        <v>71.54338709973197</v>
       </c>
       <c r="G5" t="n">
         <v>71.24472872958466</v>
@@ -4573,19 +4573,19 @@
         <v>486.1525937021223</v>
       </c>
       <c r="L5" t="n">
-        <v>800.2270663127581</v>
+        <v>486.1525937021223</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.031802541825</v>
+        <v>486.1525937021223</v>
       </c>
       <c r="N5" t="n">
-        <v>1699.836538770891</v>
+        <v>486.1525937021223</v>
       </c>
       <c r="O5" t="n">
-        <v>1699.836538770891</v>
+        <v>935.9573299311887</v>
       </c>
       <c r="P5" t="n">
-        <v>1699.836538770891</v>
+        <v>1385.762066160255</v>
       </c>
       <c r="Q5" t="n">
         <v>1699.836538770891</v>
@@ -4594,25 +4594,25 @@
         <v>1817.392873652794</v>
       </c>
       <c r="S5" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="T5" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="U5" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="V5" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="W5" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="X5" t="n">
-        <v>1809.713278860945</v>
+        <v>1301.305580693681</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.416412856239</v>
+        <v>1300.008714688976</v>
       </c>
     </row>
     <row r="6">
@@ -4646,46 +4646,46 @@
         <v>36.34785747305587</v>
       </c>
       <c r="J6" t="n">
-        <v>36.34785747305587</v>
+        <v>308.0453467526469</v>
       </c>
       <c r="K6" t="n">
-        <v>36.34785747305587</v>
+        <v>757.8500829817134</v>
       </c>
       <c r="L6" t="n">
-        <v>467.9786649655942</v>
+        <v>835.7640911099575</v>
       </c>
       <c r="M6" t="n">
-        <v>917.7834011946607</v>
+        <v>1285.568827339024</v>
       </c>
       <c r="N6" t="n">
-        <v>1367.588137423727</v>
+        <v>1285.568827339024</v>
       </c>
       <c r="O6" t="n">
-        <v>1367.588137423727</v>
+        <v>1285.568827339024</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.588137423727</v>
+        <v>1735.373563568091</v>
       </c>
       <c r="Q6" t="n">
-        <v>1817.392873652794</v>
+        <v>1735.373563568091</v>
       </c>
       <c r="R6" t="n">
         <v>1817.392873652794</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.068626214048</v>
+        <v>1763.71124061482</v>
       </c>
       <c r="T6" t="n">
-        <v>1594.188690511726</v>
+        <v>1621.831304912498</v>
       </c>
       <c r="U6" t="n">
-        <v>1409.420494431363</v>
+        <v>1437.063108832135</v>
       </c>
       <c r="V6" t="n">
-        <v>1204.447355570629</v>
+        <v>1232.089969971401</v>
       </c>
       <c r="W6" t="n">
-        <v>1007.925978403846</v>
+        <v>1035.568592804618</v>
       </c>
       <c r="X6" t="n">
         <v>872.0912465712814</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.1097269554006</v>
+        <v>881.1701333439379</v>
       </c>
       <c r="C7" t="n">
-        <v>214.1371638343166</v>
+        <v>709.1975702228539</v>
       </c>
       <c r="D7" t="n">
-        <v>214.1371638343166</v>
+        <v>545.8807973496246</v>
       </c>
       <c r="E7" t="n">
-        <v>214.1371638343166</v>
+        <v>379.6725915024781</v>
       </c>
       <c r="F7" t="n">
-        <v>42.27538960887705</v>
+        <v>207.8108172770385</v>
       </c>
       <c r="G7" t="n">
-        <v>42.27538960887705</v>
+        <v>41.55384757127067</v>
       </c>
       <c r="H7" t="n">
-        <v>42.27538960887705</v>
+        <v>41.55384757127067</v>
       </c>
       <c r="I7" t="n">
         <v>36.34785747305587</v>
@@ -4749,28 +4749,28 @@
         <v>1817.392873652794</v>
       </c>
       <c r="R7" t="n">
-        <v>1770.354260339967</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S7" t="n">
-        <v>1600.219212859102</v>
+        <v>1647.257826171929</v>
       </c>
       <c r="T7" t="n">
-        <v>1600.219212859102</v>
+        <v>1403.918478397828</v>
       </c>
       <c r="U7" t="n">
-        <v>1320.034764359406</v>
+        <v>1123.734029898133</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.034764359406</v>
+        <v>1123.734029898133</v>
       </c>
       <c r="W7" t="n">
-        <v>1045.182360531919</v>
+        <v>1123.734029898133</v>
       </c>
       <c r="X7" t="n">
-        <v>802.6184639777242</v>
+        <v>881.1701333439379</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.2756956674663</v>
+        <v>881.1701333439379</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.0958907842481</v>
+        <v>156.6762434025575</v>
       </c>
       <c r="C8" t="n">
         <v>133.8159174562617</v>
@@ -4804,52 +4804,52 @@
         <v>36.34785747305587</v>
       </c>
       <c r="J8" t="n">
-        <v>36.34785747305587</v>
+        <v>398.9513162899514</v>
       </c>
       <c r="K8" t="n">
-        <v>36.34785747305587</v>
+        <v>398.9513162899514</v>
       </c>
       <c r="L8" t="n">
-        <v>36.34785747305587</v>
+        <v>848.7560525190179</v>
       </c>
       <c r="M8" t="n">
-        <v>467.9786649655942</v>
+        <v>1250.031802541825</v>
       </c>
       <c r="N8" t="n">
-        <v>467.9786649655942</v>
+        <v>1699.836538770891</v>
       </c>
       <c r="O8" t="n">
-        <v>917.7834011946607</v>
+        <v>1699.836538770891</v>
       </c>
       <c r="P8" t="n">
-        <v>1367.588137423727</v>
+        <v>1699.836538770891</v>
       </c>
       <c r="Q8" t="n">
-        <v>1817.392873652794</v>
+        <v>1699.836538770891</v>
       </c>
       <c r="R8" t="n">
         <v>1817.392873652794</v>
       </c>
       <c r="S8" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="T8" t="n">
-        <v>1817.392873652794</v>
+        <v>1713.025579525934</v>
       </c>
       <c r="U8" t="n">
-        <v>1817.392873652794</v>
+        <v>1454.670670122346</v>
       </c>
       <c r="V8" t="n">
-        <v>1817.392873652794</v>
+        <v>1454.670670122346</v>
       </c>
       <c r="W8" t="n">
-        <v>1421.001523953141</v>
+        <v>1058.279320422693</v>
       </c>
       <c r="X8" t="n">
-        <v>1009.281525120888</v>
+        <v>981.8618777391972</v>
       </c>
       <c r="Y8" t="n">
-        <v>603.9442550757782</v>
+        <v>576.5246076940875</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>603.4713485045111</v>
+        <v>575.828734103739</v>
       </c>
       <c r="C9" t="n">
-        <v>485.9654450220158</v>
+        <v>458.3228306212437</v>
       </c>
       <c r="D9" t="n">
-        <v>382.1254865373009</v>
+        <v>354.4828721365287</v>
       </c>
       <c r="E9" t="n">
         <v>277.4235528102381</v>
@@ -4880,31 +4880,31 @@
         <v>36.34785747305587</v>
       </c>
       <c r="I9" t="n">
-        <v>36.34785747305587</v>
+        <v>43.79450043496772</v>
       </c>
       <c r="J9" t="n">
-        <v>308.0453467526469</v>
+        <v>315.4919897145588</v>
       </c>
       <c r="K9" t="n">
-        <v>308.0453467526469</v>
+        <v>315.4919897145588</v>
       </c>
       <c r="L9" t="n">
-        <v>757.8500829817134</v>
+        <v>765.2967259436252</v>
       </c>
       <c r="M9" t="n">
-        <v>757.8500829817134</v>
+        <v>765.2967259436252</v>
       </c>
       <c r="N9" t="n">
-        <v>917.7834011946607</v>
+        <v>1215.101462172692</v>
       </c>
       <c r="O9" t="n">
-        <v>917.7834011946607</v>
+        <v>1215.101462172692</v>
       </c>
       <c r="P9" t="n">
-        <v>1367.588137423727</v>
+        <v>1664.906198401758</v>
       </c>
       <c r="Q9" t="n">
-        <v>1817.392873652794</v>
+        <v>1735.373563568091</v>
       </c>
       <c r="R9" t="n">
         <v>1817.392873652794</v>
@@ -4922,13 +4922,13 @@
         <v>1204.447355570629</v>
       </c>
       <c r="W9" t="n">
-        <v>1035.568592804618</v>
+        <v>1007.925978403846</v>
       </c>
       <c r="X9" t="n">
-        <v>872.0912465712814</v>
+        <v>844.4486321705093</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.3983579245738</v>
+        <v>704.7557435238017</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>875.9641432457231</v>
+        <v>883.4678362487882</v>
       </c>
       <c r="C10" t="n">
-        <v>703.9915801246391</v>
+        <v>711.4952731277042</v>
       </c>
       <c r="D10" t="n">
-        <v>540.6748072514098</v>
+        <v>548.1785002544749</v>
       </c>
       <c r="E10" t="n">
-        <v>374.4666014042633</v>
+        <v>381.9702944073284</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6048271788237</v>
+        <v>210.1085201818888</v>
       </c>
       <c r="G10" t="n">
-        <v>36.34785747305587</v>
+        <v>43.85155047612099</v>
       </c>
       <c r="H10" t="n">
-        <v>36.34785747305587</v>
+        <v>43.85155047612099</v>
       </c>
       <c r="I10" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="J10" t="n">
-        <v>36.34785747305587</v>
+        <v>85.65696943407363</v>
       </c>
       <c r="K10" t="n">
-        <v>47.99890591042225</v>
+        <v>312.1845706399108</v>
       </c>
       <c r="L10" t="n">
-        <v>402.688227204843</v>
+        <v>666.8738919343316</v>
       </c>
       <c r="M10" t="n">
-        <v>793.8740221750938</v>
+        <v>666.8738919343316</v>
       </c>
       <c r="N10" t="n">
-        <v>1171.36553305113</v>
+        <v>1044.365402810367</v>
       </c>
       <c r="O10" t="n">
-        <v>1526.793661730893</v>
+        <v>1399.793531490131</v>
       </c>
       <c r="P10" t="n">
-        <v>1817.392873652794</v>
+        <v>1690.392743412032</v>
       </c>
       <c r="Q10" t="n">
         <v>1817.392873652794</v>
@@ -4989,25 +4989,25 @@
         <v>1817.392873652794</v>
       </c>
       <c r="S10" t="n">
-        <v>1647.257826171929</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="T10" t="n">
-        <v>1647.257826171929</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="U10" t="n">
-        <v>1367.073377672233</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="V10" t="n">
-        <v>1367.073377672233</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="W10" t="n">
-        <v>1367.073377672233</v>
+        <v>1542.540469825307</v>
       </c>
       <c r="X10" t="n">
-        <v>1292.472880268047</v>
+        <v>1299.976573271112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1066.130111957789</v>
+        <v>1073.633804960854</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>886.5412082747555</v>
+        <v>1490.118049612149</v>
       </c>
       <c r="C11" t="n">
-        <v>459.6404782880556</v>
+        <v>1063.217319625449</v>
       </c>
       <c r="D11" t="n">
-        <v>36.34785747305587</v>
+        <v>1063.217319625449</v>
       </c>
       <c r="E11" t="n">
-        <v>36.34785747305587</v>
+        <v>637.2403797733069</v>
       </c>
       <c r="F11" t="n">
-        <v>36.34785747305587</v>
+        <v>212.1161979627071</v>
       </c>
       <c r="G11" t="n">
         <v>36.34785747305587</v>
@@ -5041,52 +5041,52 @@
         <v>60.71720849633991</v>
       </c>
       <c r="J11" t="n">
-        <v>160.5378502531747</v>
+        <v>252.2944024604175</v>
       </c>
       <c r="K11" t="n">
-        <v>318.3881256296621</v>
+        <v>410.1446778369049</v>
       </c>
       <c r="L11" t="n">
-        <v>520.211886612257</v>
+        <v>611.9684388194999</v>
       </c>
       <c r="M11" t="n">
-        <v>970.0166228413234</v>
+        <v>841.682543772828</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.197486033059</v>
+        <v>1075.863406964564</v>
       </c>
       <c r="O11" t="n">
-        <v>1447.065433814098</v>
+        <v>1294.826775536347</v>
       </c>
       <c r="P11" t="n">
-        <v>1628.339190353962</v>
+        <v>1476.100532076211</v>
       </c>
       <c r="Q11" t="n">
-        <v>1756.640160862614</v>
+        <v>1604.401502584863</v>
       </c>
       <c r="R11" t="n">
         <v>1817.392873652794</v>
       </c>
       <c r="S11" t="n">
-        <v>1817.392873652794</v>
+        <v>1748.348949379389</v>
       </c>
       <c r="T11" t="n">
-        <v>1718.109571398538</v>
+        <v>1748.348949379389</v>
       </c>
       <c r="U11" t="n">
-        <v>1718.109571398538</v>
+        <v>1490.118049612149</v>
       </c>
       <c r="V11" t="n">
-        <v>1718.109571398538</v>
+        <v>1490.118049612149</v>
       </c>
       <c r="W11" t="n">
-        <v>1718.109571398538</v>
+        <v>1490.118049612149</v>
       </c>
       <c r="X11" t="n">
-        <v>1306.389572566286</v>
+        <v>1490.118049612149</v>
       </c>
       <c r="Y11" t="n">
-        <v>1306.389572566286</v>
+        <v>1490.118049612149</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>594.6318231730364</v>
+        <v>594.6318231730363</v>
       </c>
       <c r="C12" t="n">
-        <v>477.1259196905412</v>
+        <v>477.1259196905411</v>
       </c>
       <c r="D12" t="n">
-        <v>373.2859612058263</v>
+        <v>373.2859612058261</v>
       </c>
       <c r="E12" t="n">
-        <v>268.5840274787636</v>
+        <v>268.5840274787633</v>
       </c>
       <c r="F12" t="n">
-        <v>174.9381971616676</v>
+        <v>174.9381971616675</v>
       </c>
       <c r="G12" t="n">
-        <v>81.71381294123717</v>
+        <v>81.71381294123702</v>
       </c>
       <c r="H12" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="I12" t="n">
-        <v>48.32460504422699</v>
+        <v>71.78191088863883</v>
       </c>
       <c r="J12" t="n">
-        <v>104.7191953042308</v>
+        <v>128.1765011486426</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8066914745568</v>
+        <v>237.2639973189687</v>
       </c>
       <c r="L12" t="n">
-        <v>368.015705246449</v>
+        <v>391.4730110908608</v>
       </c>
       <c r="M12" t="n">
-        <v>639.0400395391866</v>
+        <v>574.5731476713734</v>
       </c>
       <c r="N12" t="n">
-        <v>1088.844775768253</v>
+        <v>764.8608048345204</v>
       </c>
       <c r="O12" t="n">
-        <v>1259.31008964138</v>
+        <v>935.3261187076474</v>
       </c>
       <c r="P12" t="n">
-        <v>1709.114825870447</v>
+        <v>1235.098791366773</v>
       </c>
       <c r="Q12" t="n">
-        <v>1790.359027880746</v>
+        <v>1684.903527595839</v>
       </c>
       <c r="R12" t="n">
-        <v>1817.392873652794</v>
+        <v>1817.392873652793</v>
       </c>
       <c r="S12" t="n">
         <v>1751.474136411083</v>
       </c>
       <c r="T12" t="n">
-        <v>1612.937214609842</v>
+        <v>1612.937214609841</v>
       </c>
       <c r="U12" t="n">
-        <v>1428.223583500661</v>
+        <v>1428.22358350066</v>
       </c>
       <c r="V12" t="n">
-        <v>1223.250444639927</v>
+        <v>1223.250444639926</v>
       </c>
       <c r="W12" t="n">
         <v>1026.729067473144</v>
       </c>
       <c r="X12" t="n">
-        <v>863.2517212398068</v>
+        <v>863.2517212398067</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.5588325930992</v>
+        <v>723.5588325930991</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.3204205941399</v>
+        <v>208.2096316984955</v>
       </c>
       <c r="C13" t="n">
-        <v>36.34785747305587</v>
+        <v>208.2096316984955</v>
       </c>
       <c r="D13" t="n">
-        <v>36.34785747305587</v>
+        <v>208.2096316984955</v>
       </c>
       <c r="E13" t="n">
-        <v>36.34785747305587</v>
+        <v>208.2096316984955</v>
       </c>
       <c r="F13" t="n">
         <v>36.34785747305587</v>
@@ -5202,16 +5202,16 @@
         <v>142.0207825572102</v>
       </c>
       <c r="K13" t="n">
-        <v>200.4429390917091</v>
+        <v>447.7255482057312</v>
       </c>
       <c r="L13" t="n">
-        <v>375.0196775376256</v>
+        <v>897.5302844347977</v>
       </c>
       <c r="M13" t="n">
-        <v>824.824413766692</v>
+        <v>1347.335020663864</v>
       </c>
       <c r="N13" t="n">
-        <v>1274.629149995759</v>
+        <v>1431.08071425856</v>
       </c>
       <c r="O13" t="n">
         <v>1724.433886224825</v>
@@ -5223,28 +5223,28 @@
         <v>1817.392873652794</v>
       </c>
       <c r="R13" t="n">
-        <v>1817.392873652794</v>
+        <v>1801.618855784103</v>
       </c>
       <c r="S13" t="n">
-        <v>1817.392873652794</v>
+        <v>1801.618855784103</v>
       </c>
       <c r="T13" t="n">
-        <v>1704.103446762302</v>
+        <v>1703.992657866658</v>
       </c>
       <c r="U13" t="n">
-        <v>1423.956925390117</v>
+        <v>1423.846136494472</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.245457998145</v>
+        <v>1142.134669102501</v>
       </c>
       <c r="W13" t="n">
-        <v>867.3930541706584</v>
+        <v>867.282265275014</v>
       </c>
       <c r="X13" t="n">
-        <v>624.8291576164635</v>
+        <v>624.7183687208191</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.4863893062055</v>
+        <v>398.3756004105611</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>985.8245105290109</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="C14" t="n">
-        <v>985.8245105290109</v>
+        <v>1390.492143666094</v>
       </c>
       <c r="D14" t="n">
-        <v>985.8245105290109</v>
+        <v>1290.237921092002</v>
       </c>
       <c r="E14" t="n">
-        <v>985.8245105290109</v>
+        <v>864.2609812398591</v>
       </c>
       <c r="F14" t="n">
-        <v>560.7003287184111</v>
+        <v>439.1367994292593</v>
       </c>
       <c r="G14" t="n">
-        <v>157.9113867622077</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="H14" t="n">
         <v>36.34785747305587</v>
@@ -5278,28 +5278,28 @@
         <v>60.71720849633991</v>
       </c>
       <c r="J14" t="n">
-        <v>160.5378502531747</v>
+        <v>404.5330607381686</v>
       </c>
       <c r="K14" t="n">
-        <v>410.1446778369053</v>
+        <v>562.3833361146559</v>
       </c>
       <c r="L14" t="n">
-        <v>611.9684388195002</v>
+        <v>764.2070970972509</v>
       </c>
       <c r="M14" t="n">
-        <v>841.6825437728282</v>
+        <v>993.921202050579</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.863406964564</v>
+        <v>1228.102065242315</v>
       </c>
       <c r="O14" t="n">
-        <v>1294.826775536347</v>
+        <v>1447.065433814098</v>
       </c>
       <c r="P14" t="n">
-        <v>1476.100532076211</v>
+        <v>1628.339190353962</v>
       </c>
       <c r="Q14" t="n">
-        <v>1604.401502584863</v>
+        <v>1756.640160862614</v>
       </c>
       <c r="R14" t="n">
         <v>1817.392873652794</v>
@@ -5320,10 +5320,10 @@
         <v>1817.392873652794</v>
       </c>
       <c r="X14" t="n">
-        <v>1405.672874820541</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="Y14" t="n">
-        <v>1405.672874820541</v>
+        <v>1817.392873652794</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>594.6318231730363</v>
+        <v>594.6318231730364</v>
       </c>
       <c r="C15" t="n">
-        <v>477.1259196905411</v>
+        <v>477.1259196905412</v>
       </c>
       <c r="D15" t="n">
-        <v>373.2859612058261</v>
+        <v>373.2859612058263</v>
       </c>
       <c r="E15" t="n">
-        <v>268.5840274787633</v>
+        <v>268.5840274787636</v>
       </c>
       <c r="F15" t="n">
-        <v>174.9381971616675</v>
+        <v>174.9381971616676</v>
       </c>
       <c r="G15" t="n">
-        <v>81.71381294123702</v>
+        <v>81.71381294123717</v>
       </c>
       <c r="H15" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="I15" t="n">
-        <v>71.78191088863883</v>
+        <v>48.32460504422699</v>
       </c>
       <c r="J15" t="n">
-        <v>128.1765011486426</v>
+        <v>104.7191953042308</v>
       </c>
       <c r="K15" t="n">
-        <v>237.2639973189686</v>
+        <v>213.8066914745568</v>
       </c>
       <c r="L15" t="n">
-        <v>391.4730110908608</v>
+        <v>368.015705246449</v>
       </c>
       <c r="M15" t="n">
-        <v>586.6124219432929</v>
+        <v>551.1158418269615</v>
       </c>
       <c r="N15" t="n">
-        <v>1036.417158172359</v>
+        <v>741.4034989901086</v>
       </c>
       <c r="O15" t="n">
-        <v>1206.882472045486</v>
+        <v>911.8688128632356</v>
       </c>
       <c r="P15" t="n">
-        <v>1340.554291651678</v>
+        <v>1235.098791366773</v>
       </c>
       <c r="Q15" t="n">
-        <v>1790.359027880745</v>
+        <v>1684.90352759584</v>
       </c>
       <c r="R15" t="n">
-        <v>1817.392873652793</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S15" t="n">
         <v>1751.474136411083</v>
       </c>
       <c r="T15" t="n">
-        <v>1612.937214609841</v>
+        <v>1612.937214609842</v>
       </c>
       <c r="U15" t="n">
-        <v>1428.22358350066</v>
+        <v>1428.223583500661</v>
       </c>
       <c r="V15" t="n">
-        <v>1223.250444639926</v>
+        <v>1223.250444639927</v>
       </c>
       <c r="W15" t="n">
         <v>1026.729067473144</v>
       </c>
       <c r="X15" t="n">
-        <v>863.2517212398067</v>
+        <v>863.2517212398068</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5588325930991</v>
+        <v>723.5588325930992</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.6371934673692</v>
+        <v>362.9529254241249</v>
       </c>
       <c r="C16" t="n">
-        <v>199.6646303462852</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="D16" t="n">
-        <v>36.34785747305587</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="E16" t="n">
-        <v>36.34785747305587</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="F16" t="n">
-        <v>36.34785747305587</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="G16" t="n">
-        <v>36.34785747305587</v>
+        <v>115.2059360988935</v>
       </c>
       <c r="H16" t="n">
-        <v>36.34785747305587</v>
+        <v>115.2059360988935</v>
       </c>
       <c r="I16" t="n">
         <v>36.34785747305587</v>
@@ -5445,10 +5445,10 @@
         <v>897.5302844347977</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.506664960043</v>
+        <v>982.0078169770624</v>
       </c>
       <c r="N16" t="n">
-        <v>1186.252358554739</v>
+        <v>1065.753510571758</v>
       </c>
       <c r="O16" t="n">
         <v>1260.304184273618</v>
@@ -5469,19 +5469,19 @@
         <v>1577.024484200316</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.024484200316</v>
+        <v>1296.87796282813</v>
       </c>
       <c r="V16" t="n">
-        <v>1295.313016808345</v>
+        <v>1296.87796282813</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.460612980858</v>
+        <v>1022.025559000643</v>
       </c>
       <c r="X16" t="n">
-        <v>777.8967164266629</v>
+        <v>779.4616624464485</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.8031621794348</v>
+        <v>553.1188941361905</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1817.392873652794</v>
+        <v>1167.610625563072</v>
       </c>
       <c r="C17" t="n">
-        <v>1817.392873652794</v>
+        <v>1167.610625563072</v>
       </c>
       <c r="D17" t="n">
-        <v>1572.231128514875</v>
+        <v>744.3180047480721</v>
       </c>
       <c r="E17" t="n">
-        <v>1146.254188662733</v>
+        <v>318.3410648959296</v>
       </c>
       <c r="F17" t="n">
-        <v>721.130006852133</v>
+        <v>318.3410648959296</v>
       </c>
       <c r="G17" t="n">
         <v>318.3410648959296</v>
@@ -5515,52 +5515,52 @@
         <v>60.71720849633991</v>
       </c>
       <c r="J17" t="n">
-        <v>160.5378502531747</v>
+        <v>160.5378502531748</v>
       </c>
       <c r="K17" t="n">
         <v>318.3881256296621</v>
       </c>
       <c r="L17" t="n">
-        <v>520.211886612257</v>
+        <v>520.2118866122571</v>
       </c>
       <c r="M17" t="n">
-        <v>841.6825437728282</v>
+        <v>749.9259915655853</v>
       </c>
       <c r="N17" t="n">
-        <v>1075.863406964564</v>
+        <v>984.1068547573213</v>
       </c>
       <c r="O17" t="n">
-        <v>1294.826775536347</v>
+        <v>1433.911590986388</v>
       </c>
       <c r="P17" t="n">
-        <v>1476.100532076211</v>
+        <v>1615.185347526252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1604.401502584863</v>
+        <v>1756.640160862614</v>
       </c>
       <c r="R17" t="n">
         <v>1817.392873652794</v>
       </c>
       <c r="S17" t="n">
-        <v>1817.392873652794</v>
+        <v>1748.348949379389</v>
       </c>
       <c r="T17" t="n">
-        <v>1817.392873652794</v>
+        <v>1748.348949379389</v>
       </c>
       <c r="U17" t="n">
-        <v>1817.392873652794</v>
+        <v>1748.348949379389</v>
       </c>
       <c r="V17" t="n">
-        <v>1817.392873652794</v>
+        <v>1390.859534505639</v>
       </c>
       <c r="W17" t="n">
-        <v>1817.392873652794</v>
+        <v>1167.610625563072</v>
       </c>
       <c r="X17" t="n">
-        <v>1817.392873652794</v>
+        <v>1167.610625563072</v>
       </c>
       <c r="Y17" t="n">
-        <v>1817.392873652794</v>
+        <v>1167.610625563072</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>36.34785747305587</v>
       </c>
       <c r="I18" t="n">
-        <v>48.32460504422699</v>
+        <v>71.78191088863883</v>
       </c>
       <c r="J18" t="n">
-        <v>104.7191953042308</v>
+        <v>420.2789936182337</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8066914745568</v>
+        <v>529.3664897885598</v>
       </c>
       <c r="L18" t="n">
-        <v>368.015705246449</v>
+        <v>683.5755035604519</v>
       </c>
       <c r="M18" t="n">
-        <v>740.6740007243064</v>
+        <v>866.6756401409644</v>
       </c>
       <c r="N18" t="n">
-        <v>930.9616578874535</v>
+        <v>1056.963297304112</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.42697176058</v>
+        <v>1227.428611177239</v>
       </c>
       <c r="P18" t="n">
-        <v>1235.098791366773</v>
+        <v>1361.100430783431</v>
       </c>
       <c r="Q18" t="n">
         <v>1684.903527595839</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>703.2962494536212</v>
+        <v>81.24145803215373</v>
       </c>
       <c r="C19" t="n">
-        <v>703.2962494536212</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="D19" t="n">
-        <v>539.9794765803919</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="E19" t="n">
-        <v>373.7712707332454</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="F19" t="n">
-        <v>201.9094965078058</v>
+        <v>36.34785747305587</v>
       </c>
       <c r="G19" t="n">
         <v>36.34785747305587</v>
@@ -5676,19 +5676,19 @@
         <v>64.09906590898932</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5212224434883</v>
+        <v>369.8038315575104</v>
       </c>
       <c r="L19" t="n">
-        <v>572.3259586725547</v>
+        <v>819.6085677865768</v>
       </c>
       <c r="M19" t="n">
-        <v>887.8211197035712</v>
+        <v>1200.577324276879</v>
       </c>
       <c r="N19" t="n">
-        <v>1337.625855932638</v>
+        <v>1650.382060505945</v>
       </c>
       <c r="O19" t="n">
-        <v>1411.677681651518</v>
+        <v>1724.433886224825</v>
       </c>
       <c r="P19" t="n">
         <v>1784.700445666178</v>
@@ -5697,28 +5697,28 @@
         <v>1817.392873652794</v>
       </c>
       <c r="R19" t="n">
-        <v>1801.618855784103</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S19" t="n">
-        <v>1643.601525542706</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="T19" t="n">
-        <v>1643.601525542706</v>
+        <v>1577.024484200316</v>
       </c>
       <c r="U19" t="n">
-        <v>1643.601525542706</v>
+        <v>1296.87796282813</v>
       </c>
       <c r="V19" t="n">
-        <v>1361.890058150735</v>
+        <v>1015.166495436159</v>
       </c>
       <c r="W19" t="n">
-        <v>1361.890058150735</v>
+        <v>740.3140916086722</v>
       </c>
       <c r="X19" t="n">
-        <v>1119.32616159654</v>
+        <v>497.7501950544773</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.9833932862819</v>
+        <v>271.4074267442194</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="C20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="D20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="E20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="F20" t="n">
-        <v>536.9107066871895</v>
+        <v>318.3410648959296</v>
       </c>
       <c r="G20" t="n">
         <v>318.3410648959296</v>
@@ -5752,25 +5752,25 @@
         <v>60.71720849633991</v>
       </c>
       <c r="J20" t="n">
-        <v>160.5378502531747</v>
+        <v>160.5378502531748</v>
       </c>
       <c r="K20" t="n">
         <v>318.3881256296621</v>
       </c>
       <c r="L20" t="n">
-        <v>520.211886612257</v>
+        <v>520.2118866122571</v>
       </c>
       <c r="M20" t="n">
-        <v>749.925991565585</v>
+        <v>749.9259915655853</v>
       </c>
       <c r="N20" t="n">
-        <v>984.1068547573211</v>
+        <v>984.1068547573213</v>
       </c>
       <c r="O20" t="n">
         <v>1203.070223329104</v>
       </c>
       <c r="P20" t="n">
-        <v>1628.339190353962</v>
+        <v>1384.343979868968</v>
       </c>
       <c r="Q20" t="n">
         <v>1756.640160862614</v>
@@ -5788,16 +5788,16 @@
         <v>1345.022055219095</v>
       </c>
       <c r="V20" t="n">
-        <v>1345.022055219095</v>
+        <v>987.5326403453448</v>
       </c>
       <c r="W20" t="n">
-        <v>948.6307055194422</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="X20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
       <c r="Y20" t="n">
-        <v>536.9107066871895</v>
+        <v>591.1412906456917</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>594.6318231730363</v>
+        <v>594.6318231730364</v>
       </c>
       <c r="C21" t="n">
-        <v>477.1259196905411</v>
+        <v>477.1259196905412</v>
       </c>
       <c r="D21" t="n">
-        <v>373.2859612058261</v>
+        <v>373.2859612058263</v>
       </c>
       <c r="E21" t="n">
-        <v>268.5840274787633</v>
+        <v>268.5840274787636</v>
       </c>
       <c r="F21" t="n">
-        <v>174.9381971616675</v>
+        <v>174.9381971616676</v>
       </c>
       <c r="G21" t="n">
-        <v>81.71381294123702</v>
+        <v>81.71381294123717</v>
       </c>
       <c r="H21" t="n">
         <v>36.34785747305587</v>
       </c>
       <c r="I21" t="n">
-        <v>48.32460504422699</v>
+        <v>71.78191088863883</v>
       </c>
       <c r="J21" t="n">
-        <v>396.8216877738218</v>
+        <v>420.2789936182337</v>
       </c>
       <c r="K21" t="n">
-        <v>505.9091839441479</v>
+        <v>529.3664897885598</v>
       </c>
       <c r="L21" t="n">
-        <v>660.1181977160401</v>
+        <v>683.5755035604519</v>
       </c>
       <c r="M21" t="n">
-        <v>955.1729561620605</v>
+        <v>866.6756401409644</v>
       </c>
       <c r="N21" t="n">
-        <v>1404.977692391127</v>
+        <v>1056.963297304112</v>
       </c>
       <c r="O21" t="n">
-        <v>1575.443006264254</v>
+        <v>1227.428611177239</v>
       </c>
       <c r="P21" t="n">
-        <v>1709.114825870446</v>
+        <v>1361.100430783431</v>
       </c>
       <c r="Q21" t="n">
-        <v>1790.359027880745</v>
+        <v>1684.90352759584</v>
       </c>
       <c r="R21" t="n">
-        <v>1817.392873652793</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S21" t="n">
         <v>1751.474136411083</v>
       </c>
       <c r="T21" t="n">
-        <v>1612.937214609841</v>
+        <v>1612.937214609842</v>
       </c>
       <c r="U21" t="n">
-        <v>1428.22358350066</v>
+        <v>1428.223583500661</v>
       </c>
       <c r="V21" t="n">
-        <v>1223.250444639926</v>
+        <v>1223.250444639927</v>
       </c>
       <c r="W21" t="n">
         <v>1026.729067473144</v>
       </c>
       <c r="X21" t="n">
-        <v>863.2517212398067</v>
+        <v>863.2517212398068</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5588325930991</v>
+        <v>723.5588325930992</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.4737577690527</v>
+        <v>564.1737440388263</v>
       </c>
       <c r="C22" t="n">
-        <v>672.5011946479686</v>
+        <v>564.1737440388263</v>
       </c>
       <c r="D22" t="n">
-        <v>509.1844217747393</v>
+        <v>400.856971165597</v>
       </c>
       <c r="E22" t="n">
-        <v>342.9762159275929</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="F22" t="n">
-        <v>342.9762159275929</v>
+        <v>280.7675751336434</v>
       </c>
       <c r="G22" t="n">
-        <v>252.8200828065974</v>
+        <v>115.2059360988935</v>
       </c>
       <c r="H22" t="n">
         <v>115.2059360988935</v>
@@ -5910,52 +5910,52 @@
         <v>36.34785747305587</v>
       </c>
       <c r="J22" t="n">
-        <v>64.09906590898932</v>
+        <v>142.0207825572102</v>
       </c>
       <c r="K22" t="n">
-        <v>369.8038315575104</v>
+        <v>447.7255482057312</v>
       </c>
       <c r="L22" t="n">
-        <v>819.6085677865768</v>
+        <v>897.5302844347977</v>
       </c>
       <c r="M22" t="n">
-        <v>1269.413304015643</v>
+        <v>1347.335020663864</v>
       </c>
       <c r="N22" t="n">
-        <v>1499.008563128046</v>
+        <v>1650.382060505945</v>
       </c>
       <c r="O22" t="n">
-        <v>1573.060388846926</v>
+        <v>1724.433886224825</v>
       </c>
       <c r="P22" t="n">
-        <v>1633.326948288279</v>
+        <v>1784.700445666178</v>
       </c>
       <c r="Q22" t="n">
         <v>1817.392873652794</v>
       </c>
       <c r="R22" t="n">
-        <v>1801.618855784103</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="S22" t="n">
-        <v>1643.601525542706</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="T22" t="n">
-        <v>1643.601525542706</v>
+        <v>1817.392873652794</v>
       </c>
       <c r="U22" t="n">
-        <v>1643.601525542706</v>
+        <v>1537.246352280608</v>
       </c>
       <c r="V22" t="n">
-        <v>1361.890058150735</v>
+        <v>1255.534884888637</v>
       </c>
       <c r="W22" t="n">
-        <v>1087.037654323248</v>
+        <v>980.6824810611499</v>
       </c>
       <c r="X22" t="n">
-        <v>844.4737577690527</v>
+        <v>980.6824810611499</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.4737577690527</v>
+        <v>754.339712750892</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1334.456433339822</v>
+        <v>801.9543581411361</v>
       </c>
       <c r="C23" t="n">
-        <v>907.5557033531222</v>
+        <v>801.9543581411361</v>
       </c>
       <c r="D23" t="n">
-        <v>484.2630825381225</v>
+        <v>801.9543581411361</v>
       </c>
       <c r="E23" t="n">
-        <v>58.2861426859801</v>
+        <v>801.9543581411361</v>
       </c>
       <c r="F23" t="n">
-        <v>58.2861426859801</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="G23" t="n">
-        <v>58.2861426859801</v>
+        <v>340.2793501088539</v>
       </c>
       <c r="H23" t="n">
         <v>58.2861426859801</v>
@@ -5989,52 +5989,52 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4761354660989</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K23" t="n">
-        <v>637.5026948372376</v>
+        <v>1015.210031120381</v>
       </c>
       <c r="L23" t="n">
-        <v>1358.793710576241</v>
+        <v>1217.033792102976</v>
       </c>
       <c r="M23" t="n">
-        <v>1588.50781552957</v>
+        <v>1446.747897056304</v>
       </c>
       <c r="N23" t="n">
-        <v>1822.688678721306</v>
+        <v>1680.92876024804</v>
       </c>
       <c r="O23" t="n">
-        <v>2543.979694460309</v>
+        <v>1899.892128819823</v>
       </c>
       <c r="P23" t="n">
-        <v>2725.253451000173</v>
+        <v>2081.165885359687</v>
       </c>
       <c r="Q23" t="n">
-        <v>2853.554421508826</v>
+        <v>2701.315763231074</v>
       </c>
       <c r="R23" t="n">
         <v>2914.307134299005</v>
       </c>
       <c r="S23" t="n">
-        <v>2914.307134299005</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="T23" t="n">
-        <v>2914.307134299005</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="U23" t="n">
-        <v>2914.307134299005</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="V23" t="n">
-        <v>2914.307134299005</v>
+        <v>2015.402976718152</v>
       </c>
       <c r="W23" t="n">
-        <v>2571.362066508715</v>
+        <v>1619.011627018499</v>
       </c>
       <c r="X23" t="n">
-        <v>2159.642067676462</v>
+        <v>1207.291628186246</v>
       </c>
       <c r="Y23" t="n">
-        <v>1754.304797631352</v>
+        <v>801.9543581411361</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I24" t="n">
-        <v>70.26289025715121</v>
+        <v>70.26289025715123</v>
       </c>
       <c r="J24" t="n">
-        <v>303.5666291493051</v>
+        <v>418.7599729867461</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6541253196311</v>
+        <v>527.8474691570722</v>
       </c>
       <c r="L24" t="n">
-        <v>566.8631390915233</v>
+        <v>682.0564829289643</v>
       </c>
       <c r="M24" t="n">
-        <v>749.9632756720358</v>
+        <v>865.1566195094769</v>
       </c>
       <c r="N24" t="n">
-        <v>940.2509328351829</v>
+        <v>1055.444276672624</v>
       </c>
       <c r="O24" t="n">
-        <v>1110.71624670831</v>
+        <v>1225.909590545751</v>
       </c>
       <c r="P24" t="n">
-        <v>1244.388066314502</v>
+        <v>1359.581410151943</v>
       </c>
       <c r="Q24" t="n">
         <v>1812.297313093669</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.364370568277</v>
+        <v>1020.138388436967</v>
       </c>
       <c r="C25" t="n">
-        <v>832.3918074471926</v>
+        <v>848.1658253158835</v>
       </c>
       <c r="D25" t="n">
-        <v>778.3899871268576</v>
+        <v>684.8490524426542</v>
       </c>
       <c r="E25" t="n">
-        <v>612.1817812797111</v>
+        <v>518.6408465955077</v>
       </c>
       <c r="F25" t="n">
-        <v>440.3200070542715</v>
+        <v>346.7790723700681</v>
       </c>
       <c r="G25" t="n">
-        <v>274.7583680195216</v>
+        <v>181.2174333353182</v>
       </c>
       <c r="H25" t="n">
-        <v>137.1442213118178</v>
+        <v>58.2861426859801</v>
       </c>
       <c r="I25" t="n">
         <v>58.2861426859801</v>
@@ -6150,13 +6150,13 @@
         <v>163.9590677701347</v>
       </c>
       <c r="K25" t="n">
-        <v>469.6638334186556</v>
+        <v>469.6638334186557</v>
       </c>
       <c r="L25" t="n">
-        <v>925.672665456085</v>
+        <v>925.6726654560853</v>
       </c>
       <c r="M25" t="n">
-        <v>1423.685678461171</v>
+        <v>1423.685678461172</v>
       </c>
       <c r="N25" t="n">
         <v>1905.464294897747</v>
@@ -6171,28 +6171,28 @@
         <v>2914.307134299005</v>
       </c>
       <c r="R25" t="n">
-        <v>2898.533116430314</v>
+        <v>2914.307134299005</v>
       </c>
       <c r="S25" t="n">
-        <v>2740.515786188917</v>
+        <v>2756.289804057608</v>
       </c>
       <c r="T25" t="n">
-        <v>2500.147396736439</v>
+        <v>2515.92141460513</v>
       </c>
       <c r="U25" t="n">
-        <v>2220.000875364253</v>
+        <v>2235.774893232944</v>
       </c>
       <c r="V25" t="n">
-        <v>1938.289407972282</v>
+        <v>1954.063425840973</v>
       </c>
       <c r="W25" t="n">
-        <v>1663.437004144795</v>
+        <v>1679.211022013486</v>
       </c>
       <c r="X25" t="n">
-        <v>1420.8731075906</v>
+        <v>1436.647125459291</v>
       </c>
       <c r="Y25" t="n">
-        <v>1194.530339280342</v>
+        <v>1210.304357149033</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2162.369557106626</v>
+        <v>1403.163578535706</v>
       </c>
       <c r="C26" t="n">
-        <v>1735.468827119926</v>
+        <v>976.2628485490065</v>
       </c>
       <c r="D26" t="n">
-        <v>1312.176206304926</v>
+        <v>552.9702277340068</v>
       </c>
       <c r="E26" t="n">
-        <v>886.1992664527834</v>
+        <v>126.9932878818644</v>
       </c>
       <c r="F26" t="n">
-        <v>461.0750846421835</v>
+        <v>126.9932878818644</v>
       </c>
       <c r="G26" t="n">
         <v>58.2861426859801</v>
@@ -6226,22 +6226,22 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J26" t="n">
-        <v>574.205354173725</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K26" t="n">
-        <v>732.0556295502124</v>
+        <v>1015.210031120381</v>
       </c>
       <c r="L26" t="n">
-        <v>933.8793905328073</v>
+        <v>1217.033792102976</v>
       </c>
       <c r="M26" t="n">
-        <v>1163.593495486135</v>
+        <v>1446.747897056304</v>
       </c>
       <c r="N26" t="n">
-        <v>1397.774358677872</v>
+        <v>1680.92876024804</v>
       </c>
       <c r="O26" t="n">
-        <v>1616.737727249654</v>
+        <v>1899.892128819823</v>
       </c>
       <c r="P26" t="n">
         <v>2081.165885359687</v>
@@ -6253,25 +6253,25 @@
         <v>2914.307134299005</v>
       </c>
       <c r="S26" t="n">
-        <v>2914.307134299005</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="T26" t="n">
-        <v>2914.307134299005</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="U26" t="n">
-        <v>2914.307134299005</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="V26" t="n">
-        <v>2914.307134299005</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="W26" t="n">
-        <v>2582.217921398155</v>
+        <v>2234.731941659489</v>
       </c>
       <c r="X26" t="n">
-        <v>2582.217921398155</v>
+        <v>1823.011942827236</v>
       </c>
       <c r="Y26" t="n">
-        <v>2582.217921398155</v>
+        <v>1823.011942827236</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26289025715121</v>
+        <v>93.72019610156306</v>
       </c>
       <c r="J27" t="n">
-        <v>126.657480517155</v>
+        <v>442.217278831158</v>
       </c>
       <c r="K27" t="n">
-        <v>311.6999739556876</v>
+        <v>551.304775001484</v>
       </c>
       <c r="L27" t="n">
-        <v>465.9089877275798</v>
+        <v>705.5137887733762</v>
       </c>
       <c r="M27" t="n">
-        <v>649.0091243080923</v>
+        <v>888.6139253538887</v>
       </c>
       <c r="N27" t="n">
-        <v>839.2967814712393</v>
+        <v>1078.901582517036</v>
       </c>
       <c r="O27" t="n">
-        <v>1009.762095344366</v>
+        <v>1249.366896390163</v>
       </c>
       <c r="P27" t="n">
-        <v>1731.05311108337</v>
+        <v>1383.038715996355</v>
       </c>
       <c r="Q27" t="n">
-        <v>1812.297313093669</v>
+        <v>1706.841812808763</v>
       </c>
       <c r="R27" t="n">
         <v>1839.331158865717</v>
@@ -6378,7 +6378,7 @@
         <v>165.4434154666273</v>
       </c>
       <c r="H28" t="n">
-        <v>137.1442213118178</v>
+        <v>58.2861426859801</v>
       </c>
       <c r="I28" t="n">
         <v>58.2861426859801</v>
@@ -6387,10 +6387,10 @@
         <v>163.9590677701344</v>
       </c>
       <c r="K28" t="n">
-        <v>469.6638334186553</v>
+        <v>469.6638334186554</v>
       </c>
       <c r="L28" t="n">
-        <v>925.6726654560848</v>
+        <v>925.672665456085</v>
       </c>
       <c r="M28" t="n">
         <v>1423.685678461171</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1735.468827119926</v>
+        <v>1169.969022051757</v>
       </c>
       <c r="C29" t="n">
-        <v>1735.468827119926</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="D29" t="n">
-        <v>1312.176206304926</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="E29" t="n">
-        <v>886.1992664527834</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="F29" t="n">
-        <v>461.0750846421835</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="G29" t="n">
-        <v>58.2861426859801</v>
+        <v>340.2793501088539</v>
       </c>
       <c r="H29" t="n">
         <v>58.2861426859801</v>
@@ -6463,52 +6463,52 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J29" t="n">
-        <v>574.205354173725</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K29" t="n">
-        <v>1172.1874442136</v>
+        <v>732.0556295502124</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.011205196195</v>
+        <v>933.8793905328074</v>
       </c>
       <c r="M29" t="n">
-        <v>1603.725310149523</v>
+        <v>1163.593495486135</v>
       </c>
       <c r="N29" t="n">
-        <v>2325.016325888527</v>
+        <v>1397.774358677872</v>
       </c>
       <c r="O29" t="n">
-        <v>2543.979694460309</v>
+        <v>1616.737727249654</v>
       </c>
       <c r="P29" t="n">
-        <v>2725.253451000173</v>
+        <v>2081.165885359687</v>
       </c>
       <c r="Q29" t="n">
-        <v>2853.554421508826</v>
+        <v>2701.315763231074</v>
       </c>
       <c r="R29" t="n">
         <v>2914.307134299005</v>
       </c>
       <c r="S29" t="n">
-        <v>2914.307134299005</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="T29" t="n">
-        <v>2700.167215632547</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="U29" t="n">
-        <v>2700.167215632547</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="V29" t="n">
-        <v>2342.677800758796</v>
+        <v>2015.402976718152</v>
       </c>
       <c r="W29" t="n">
-        <v>2342.677800758796</v>
+        <v>1619.011627018499</v>
       </c>
       <c r="X29" t="n">
-        <v>2342.677800758796</v>
+        <v>1619.011627018499</v>
       </c>
       <c r="Y29" t="n">
-        <v>1937.340530713687</v>
+        <v>1213.674356973389</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26289025715121</v>
+        <v>93.72019610156306</v>
       </c>
       <c r="J30" t="n">
-        <v>418.7599729867461</v>
+        <v>442.217278831158</v>
       </c>
       <c r="K30" t="n">
-        <v>527.8474691570722</v>
+        <v>551.304775001484</v>
       </c>
       <c r="L30" t="n">
-        <v>682.0564829289643</v>
+        <v>705.5137887733762</v>
       </c>
       <c r="M30" t="n">
-        <v>865.1566195094769</v>
+        <v>888.6139253538887</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.460477319145</v>
+        <v>1078.901582517036</v>
       </c>
       <c r="O30" t="n">
-        <v>1491.925791192272</v>
+        <v>1249.366896390163</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.597610798464</v>
+        <v>1383.038715996355</v>
       </c>
       <c r="Q30" t="n">
         <v>1706.841812808763</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.364370568277</v>
+        <v>1113.679323121171</v>
       </c>
       <c r="C31" t="n">
-        <v>832.3918074471926</v>
+        <v>941.7067600000869</v>
       </c>
       <c r="D31" t="n">
         <v>778.3899871268576</v>
@@ -6621,13 +6621,13 @@
         <v>58.2861426859801</v>
       </c>
       <c r="J31" t="n">
-        <v>163.9590677701342</v>
+        <v>163.9590677701344</v>
       </c>
       <c r="K31" t="n">
-        <v>469.6638334186553</v>
+        <v>469.6638334186555</v>
       </c>
       <c r="L31" t="n">
-        <v>925.6726654560848</v>
+        <v>925.672665456085</v>
       </c>
       <c r="M31" t="n">
         <v>1423.685678461171</v>
@@ -6645,28 +6645,28 @@
         <v>2914.307134299005</v>
       </c>
       <c r="R31" t="n">
-        <v>2898.533116430314</v>
+        <v>2914.307134299005</v>
       </c>
       <c r="S31" t="n">
-        <v>2740.515786188917</v>
+        <v>2756.289804057608</v>
       </c>
       <c r="T31" t="n">
-        <v>2500.147396736439</v>
+        <v>2515.92141460513</v>
       </c>
       <c r="U31" t="n">
-        <v>2220.000875364253</v>
+        <v>2329.315827917148</v>
       </c>
       <c r="V31" t="n">
-        <v>1938.289407972282</v>
+        <v>2047.604360525176</v>
       </c>
       <c r="W31" t="n">
-        <v>1663.437004144795</v>
+        <v>1772.751956697689</v>
       </c>
       <c r="X31" t="n">
-        <v>1420.8731075906</v>
+        <v>1530.188060143495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1194.530339280342</v>
+        <v>1303.845291833237</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>481.5787635009798</v>
+        <v>2162.369557106626</v>
       </c>
       <c r="C32" t="n">
-        <v>481.5787635009798</v>
+        <v>1735.468827119926</v>
       </c>
       <c r="D32" t="n">
-        <v>58.2861426859801</v>
+        <v>1312.176206304926</v>
       </c>
       <c r="E32" t="n">
-        <v>58.2861426859801</v>
+        <v>886.1992664527834</v>
       </c>
       <c r="F32" t="n">
-        <v>58.2861426859801</v>
+        <v>461.0750846421835</v>
       </c>
       <c r="G32" t="n">
         <v>58.2861426859801</v>
@@ -6700,25 +6700,25 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J32" t="n">
-        <v>370.5215997736858</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K32" t="n">
-        <v>528.3718751501731</v>
+        <v>1015.210031120381</v>
       </c>
       <c r="L32" t="n">
-        <v>730.195636132768</v>
+        <v>1217.033792102976</v>
       </c>
       <c r="M32" t="n">
-        <v>1451.486651871772</v>
+        <v>1446.747897056304</v>
       </c>
       <c r="N32" t="n">
-        <v>2172.777667610776</v>
+        <v>1680.92876024804</v>
       </c>
       <c r="O32" t="n">
-        <v>2391.741036182558</v>
+        <v>1899.892128819823</v>
       </c>
       <c r="P32" t="n">
-        <v>2573.014792722422</v>
+        <v>2081.165885359687</v>
       </c>
       <c r="Q32" t="n">
         <v>2701.315763231074</v>
@@ -6730,22 +6730,22 @@
         <v>2845.263210025601</v>
       </c>
       <c r="T32" t="n">
-        <v>2631.123291359142</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="U32" t="n">
-        <v>2372.892391591902</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="V32" t="n">
-        <v>2015.402976718152</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="W32" t="n">
-        <v>1619.011627018499</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="X32" t="n">
-        <v>1207.291628186246</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="Y32" t="n">
-        <v>801.9543581411361</v>
+        <v>2439.925939980491</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26289025715121</v>
+        <v>70.26289025715123</v>
       </c>
       <c r="J33" t="n">
         <v>126.657480517155</v>
       </c>
       <c r="K33" t="n">
-        <v>235.744976687481</v>
+        <v>847.9484962561588</v>
       </c>
       <c r="L33" t="n">
-        <v>389.9539904593732</v>
+        <v>1002.157510028051</v>
       </c>
       <c r="M33" t="n">
-        <v>685.8026185750273</v>
+        <v>1185.257646608563</v>
       </c>
       <c r="N33" t="n">
-        <v>876.0902757381743</v>
+        <v>1375.54530377171</v>
       </c>
       <c r="O33" t="n">
-        <v>1597.381291477178</v>
+        <v>1546.010617644838</v>
       </c>
       <c r="P33" t="n">
-        <v>1731.05311108337</v>
+        <v>1679.68243725103</v>
       </c>
       <c r="Q33" t="n">
         <v>1812.297313093669</v>
@@ -6858,13 +6858,13 @@
         <v>58.2861426859801</v>
       </c>
       <c r="J34" t="n">
-        <v>163.9590677701344</v>
+        <v>163.9590677701342</v>
       </c>
       <c r="K34" t="n">
-        <v>469.6638334186555</v>
+        <v>469.6638334186553</v>
       </c>
       <c r="L34" t="n">
-        <v>925.672665456085</v>
+        <v>925.6726654560848</v>
       </c>
       <c r="M34" t="n">
         <v>1423.685678461171</v>
@@ -6882,28 +6882,28 @@
         <v>2914.307134299005</v>
       </c>
       <c r="R34" t="n">
-        <v>2898.533116430314</v>
+        <v>2914.307134299005</v>
       </c>
       <c r="S34" t="n">
-        <v>2740.515786188917</v>
+        <v>2756.289804057608</v>
       </c>
       <c r="T34" t="n">
-        <v>2500.147396736439</v>
+        <v>2609.462349289333</v>
       </c>
       <c r="U34" t="n">
-        <v>2220.000875364253</v>
+        <v>2329.315827917148</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.289407972282</v>
+        <v>2047.604360525176</v>
       </c>
       <c r="W34" t="n">
-        <v>1663.437004144795</v>
+        <v>1772.751956697689</v>
       </c>
       <c r="X34" t="n">
-        <v>1420.8731075906</v>
+        <v>1530.188060143495</v>
       </c>
       <c r="Y34" t="n">
-        <v>1194.530339280342</v>
+        <v>1303.845291833237</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.1059938496061</v>
+        <v>2041.573822573296</v>
       </c>
       <c r="C35" t="n">
-        <v>58.2861426859801</v>
+        <v>1614.673092586596</v>
       </c>
       <c r="D35" t="n">
-        <v>58.2861426859801</v>
+        <v>1191.380471771596</v>
       </c>
       <c r="E35" t="n">
-        <v>58.2861426859801</v>
+        <v>765.4035319194536</v>
       </c>
       <c r="F35" t="n">
-        <v>58.2861426859801</v>
+        <v>340.2793501088539</v>
       </c>
       <c r="G35" t="n">
-        <v>58.2861426859801</v>
+        <v>340.2793501088539</v>
       </c>
       <c r="H35" t="n">
         <v>58.2861426859801</v>
@@ -6937,13 +6937,13 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J35" t="n">
-        <v>574.205354173725</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K35" t="n">
         <v>732.0556295502124</v>
       </c>
       <c r="L35" t="n">
-        <v>933.8793905328073</v>
+        <v>933.8793905328074</v>
       </c>
       <c r="M35" t="n">
         <v>1163.593495486135</v>
@@ -6973,16 +6973,16 @@
         <v>2372.892391591902</v>
       </c>
       <c r="V35" t="n">
-        <v>2015.402976718152</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="W35" t="n">
-        <v>1619.011627018499</v>
+        <v>2041.573822573296</v>
       </c>
       <c r="X35" t="n">
-        <v>1207.291628186246</v>
+        <v>2041.573822573296</v>
       </c>
       <c r="Y35" t="n">
-        <v>801.9543581411361</v>
+        <v>2041.573822573296</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I36" t="n">
-        <v>70.26289025715121</v>
+        <v>93.72019610156306</v>
       </c>
       <c r="J36" t="n">
-        <v>126.657480517155</v>
+        <v>150.1147863615668</v>
       </c>
       <c r="K36" t="n">
-        <v>235.744976687481</v>
+        <v>793.8636698035937</v>
       </c>
       <c r="L36" t="n">
-        <v>389.9539904593732</v>
+        <v>948.0726835754858</v>
       </c>
       <c r="M36" t="n">
-        <v>573.0541270398858</v>
+        <v>1131.172820155998</v>
       </c>
       <c r="N36" t="n">
-        <v>763.3417842030328</v>
+        <v>1321.460477319145</v>
       </c>
       <c r="O36" t="n">
-        <v>933.8070980761598</v>
+        <v>1491.925791192272</v>
       </c>
       <c r="P36" t="n">
         <v>1625.597610798464</v>
@@ -7083,22 +7083,22 @@
         <v>502.8668287268168</v>
       </c>
       <c r="F37" t="n">
-        <v>440.3200070542715</v>
+        <v>331.0050545013772</v>
       </c>
       <c r="G37" t="n">
-        <v>274.7583680195216</v>
+        <v>165.4434154666273</v>
       </c>
       <c r="H37" t="n">
-        <v>137.1442213118178</v>
+        <v>58.2861426859801</v>
       </c>
       <c r="I37" t="n">
         <v>58.2861426859801</v>
       </c>
       <c r="J37" t="n">
-        <v>163.9590677701344</v>
+        <v>163.9590677701342</v>
       </c>
       <c r="K37" t="n">
-        <v>469.6638334186555</v>
+        <v>469.6638334186553</v>
       </c>
       <c r="L37" t="n">
         <v>925.6726654560848</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1421.431546852705</v>
+        <v>1761.846675921721</v>
       </c>
       <c r="C38" t="n">
-        <v>1421.431546852705</v>
+        <v>1334.945945935021</v>
       </c>
       <c r="D38" t="n">
-        <v>1421.431546852705</v>
+        <v>1334.945945935021</v>
       </c>
       <c r="E38" t="n">
-        <v>1168.192473875657</v>
+        <v>908.9690060828788</v>
       </c>
       <c r="F38" t="n">
-        <v>743.0682920650572</v>
+        <v>483.844824272279</v>
       </c>
       <c r="G38" t="n">
         <v>340.2793501088539</v>
@@ -7174,25 +7174,25 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4761354660989</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K38" t="n">
-        <v>523.6331203347058</v>
+        <v>967.0416792839764</v>
       </c>
       <c r="L38" t="n">
-        <v>725.4568813173007</v>
+        <v>1168.865440266571</v>
       </c>
       <c r="M38" t="n">
-        <v>1446.747897056305</v>
+        <v>1398.5795452199</v>
       </c>
       <c r="N38" t="n">
-        <v>1680.928760248041</v>
+        <v>1632.760408411636</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.892128819823</v>
+        <v>1851.723776983418</v>
       </c>
       <c r="P38" t="n">
-        <v>2081.165885359687</v>
+        <v>2573.014792722422</v>
       </c>
       <c r="Q38" t="n">
         <v>2701.315763231074</v>
@@ -7210,16 +7210,16 @@
         <v>2587.032310258361</v>
       </c>
       <c r="V38" t="n">
-        <v>2229.54289538461</v>
+        <v>2587.032310258361</v>
       </c>
       <c r="W38" t="n">
-        <v>1833.151545684957</v>
+        <v>2587.032310258361</v>
       </c>
       <c r="X38" t="n">
-        <v>1421.431546852705</v>
+        <v>2587.032310258361</v>
       </c>
       <c r="Y38" t="n">
-        <v>1421.431546852705</v>
+        <v>2181.695040213251</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>58.2861426859801</v>
       </c>
       <c r="I39" t="n">
-        <v>70.26289025715121</v>
+        <v>70.26289025715123</v>
       </c>
       <c r="J39" t="n">
-        <v>418.7599729867461</v>
+        <v>126.657480517155</v>
       </c>
       <c r="K39" t="n">
-        <v>527.8474691570722</v>
+        <v>847.9484962561588</v>
       </c>
       <c r="L39" t="n">
-        <v>682.0564829289643</v>
+        <v>1002.157510028051</v>
       </c>
       <c r="M39" t="n">
-        <v>1131.172820155998</v>
+        <v>1185.257646608563</v>
       </c>
       <c r="N39" t="n">
-        <v>1321.460477319145</v>
+        <v>1375.54530377171</v>
       </c>
       <c r="O39" t="n">
-        <v>1491.925791192272</v>
+        <v>1546.010617644838</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.597610798464</v>
+        <v>1679.68243725103</v>
       </c>
       <c r="Q39" t="n">
-        <v>1706.841812808763</v>
+        <v>1760.926639261329</v>
       </c>
       <c r="R39" t="n">
         <v>1839.331158865717</v>
@@ -7317,13 +7317,13 @@
         <v>669.0750345739633</v>
       </c>
       <c r="E40" t="n">
-        <v>502.8668287268168</v>
+        <v>612.1817812797111</v>
       </c>
       <c r="F40" t="n">
-        <v>331.0050545013772</v>
+        <v>440.3200070542715</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4434154666273</v>
+        <v>274.7583680195216</v>
       </c>
       <c r="H40" t="n">
         <v>137.1442213118178</v>
@@ -7332,16 +7332,16 @@
         <v>58.2861426859801</v>
       </c>
       <c r="J40" t="n">
-        <v>163.9590677701344</v>
+        <v>163.9590677701347</v>
       </c>
       <c r="K40" t="n">
-        <v>469.6638334186555</v>
+        <v>469.6638334186557</v>
       </c>
       <c r="L40" t="n">
-        <v>925.672665456085</v>
+        <v>925.6726654560853</v>
       </c>
       <c r="M40" t="n">
-        <v>1423.685678461171</v>
+        <v>1423.685678461172</v>
       </c>
       <c r="N40" t="n">
         <v>1905.464294897747</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1833.151545684957</v>
+        <v>2175.312311426108</v>
       </c>
       <c r="C41" t="n">
-        <v>1833.151545684957</v>
+        <v>2017.462034542799</v>
       </c>
       <c r="D41" t="n">
-        <v>1409.858924869957</v>
+        <v>1594.1694137278</v>
       </c>
       <c r="E41" t="n">
-        <v>983.8819850178151</v>
+        <v>1168.192473875657</v>
       </c>
       <c r="F41" t="n">
-        <v>558.7578032072153</v>
+        <v>743.0682920650572</v>
       </c>
       <c r="G41" t="n">
-        <v>155.9688612510118</v>
+        <v>340.2793501088539</v>
       </c>
       <c r="H41" t="n">
         <v>58.2861426859801</v>
@@ -7411,25 +7411,25 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J41" t="n">
-        <v>574.205354173725</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K41" t="n">
         <v>732.0556295502124</v>
       </c>
       <c r="L41" t="n">
-        <v>933.8793905328073</v>
+        <v>933.8793905328074</v>
       </c>
       <c r="M41" t="n">
         <v>1163.593495486135</v>
       </c>
       <c r="N41" t="n">
-        <v>1884.884511225139</v>
+        <v>1397.774358677872</v>
       </c>
       <c r="O41" t="n">
-        <v>2391.741036182558</v>
+        <v>1616.737727249654</v>
       </c>
       <c r="P41" t="n">
-        <v>2573.014792722422</v>
+        <v>2081.165885359687</v>
       </c>
       <c r="Q41" t="n">
         <v>2701.315763231074</v>
@@ -7447,16 +7447,16 @@
         <v>2587.032310258361</v>
       </c>
       <c r="V41" t="n">
-        <v>2229.54289538461</v>
+        <v>2587.032310258361</v>
       </c>
       <c r="W41" t="n">
-        <v>1833.151545684957</v>
+        <v>2587.032310258361</v>
       </c>
       <c r="X41" t="n">
-        <v>1833.151545684957</v>
+        <v>2175.312311426108</v>
       </c>
       <c r="Y41" t="n">
-        <v>1833.151545684957</v>
+        <v>2175.312311426108</v>
       </c>
     </row>
     <row r="42">
@@ -7505,10 +7505,10 @@
         <v>1078.901582517036</v>
       </c>
       <c r="O42" t="n">
-        <v>1491.925791192272</v>
+        <v>1249.366896390163</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.597610798464</v>
+        <v>1383.038715996355</v>
       </c>
       <c r="Q42" t="n">
         <v>1706.841812808763</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1004.364370568277</v>
+        <v>1020.138388436967</v>
       </c>
       <c r="C43" t="n">
-        <v>832.3918074471926</v>
+        <v>848.1658253158835</v>
       </c>
       <c r="D43" t="n">
-        <v>669.0750345739633</v>
+        <v>684.8490524426542</v>
       </c>
       <c r="E43" t="n">
-        <v>502.8668287268168</v>
+        <v>518.6408465955077</v>
       </c>
       <c r="F43" t="n">
-        <v>440.3200070542715</v>
+        <v>361.4619284284339</v>
       </c>
       <c r="G43" t="n">
-        <v>274.7583680195216</v>
+        <v>195.900289393684</v>
       </c>
       <c r="H43" t="n">
-        <v>137.1442213118178</v>
+        <v>58.2861426859801</v>
       </c>
       <c r="I43" t="n">
         <v>58.2861426859801</v>
@@ -7587,34 +7587,34 @@
         <v>2357.21844491983</v>
       </c>
       <c r="P43" t="n">
-        <v>2730.241208934491</v>
+        <v>2730.24120893449</v>
       </c>
       <c r="Q43" t="n">
         <v>2914.307134299005</v>
       </c>
       <c r="R43" t="n">
-        <v>2898.533116430314</v>
+        <v>2914.307134299005</v>
       </c>
       <c r="S43" t="n">
-        <v>2740.515786188917</v>
+        <v>2756.289804057608</v>
       </c>
       <c r="T43" t="n">
-        <v>2500.147396736439</v>
+        <v>2515.92141460513</v>
       </c>
       <c r="U43" t="n">
-        <v>2220.000875364253</v>
+        <v>2235.774893232944</v>
       </c>
       <c r="V43" t="n">
-        <v>1938.289407972282</v>
+        <v>1954.063425840973</v>
       </c>
       <c r="W43" t="n">
-        <v>1663.437004144795</v>
+        <v>1679.211022013486</v>
       </c>
       <c r="X43" t="n">
-        <v>1420.8731075906</v>
+        <v>1436.647125459291</v>
       </c>
       <c r="Y43" t="n">
-        <v>1194.530339280342</v>
+        <v>1210.304357149033</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.093203862357</v>
+        <v>1967.555121546793</v>
       </c>
       <c r="C44" t="n">
-        <v>1168.192473875657</v>
+        <v>1967.555121546793</v>
       </c>
       <c r="D44" t="n">
-        <v>1168.192473875657</v>
+        <v>1544.262500731793</v>
       </c>
       <c r="E44" t="n">
-        <v>1168.192473875657</v>
+        <v>1118.28556087965</v>
       </c>
       <c r="F44" t="n">
         <v>743.0682920650572</v>
@@ -7648,52 +7648,52 @@
         <v>82.65549370926414</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4761354660989</v>
+        <v>574.2053541737251</v>
       </c>
       <c r="K44" t="n">
-        <v>340.3264108425863</v>
+        <v>1295.496369912729</v>
       </c>
       <c r="L44" t="n">
-        <v>542.1501718251811</v>
+        <v>1861.121357743463</v>
       </c>
       <c r="M44" t="n">
-        <v>949.1590047045506</v>
+        <v>2090.835462696791</v>
       </c>
       <c r="N44" t="n">
-        <v>1670.450020443554</v>
+        <v>2325.016325888527</v>
       </c>
       <c r="O44" t="n">
-        <v>2391.741036182558</v>
+        <v>2543.979694460309</v>
       </c>
       <c r="P44" t="n">
-        <v>2573.014792722422</v>
+        <v>2725.253451000173</v>
       </c>
       <c r="Q44" t="n">
-        <v>2701.315763231074</v>
+        <v>2853.554421508826</v>
       </c>
       <c r="R44" t="n">
         <v>2914.307134299005</v>
       </c>
       <c r="S44" t="n">
-        <v>2914.307134299005</v>
+        <v>2845.263210025601</v>
       </c>
       <c r="T44" t="n">
-        <v>2831.998837031249</v>
+        <v>2631.123291359142</v>
       </c>
       <c r="U44" t="n">
-        <v>2831.998837031249</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="V44" t="n">
-        <v>2831.998837031249</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="W44" t="n">
-        <v>2831.998837031249</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="X44" t="n">
-        <v>2420.278838198997</v>
+        <v>2372.892391591902</v>
       </c>
       <c r="Y44" t="n">
-        <v>2014.941568153887</v>
+        <v>1967.555121546793</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.72019610156306</v>
       </c>
       <c r="J45" t="n">
-        <v>150.1147863615668</v>
+        <v>442.217278831158</v>
       </c>
       <c r="K45" t="n">
-        <v>259.2022825318928</v>
+        <v>551.304775001484</v>
       </c>
       <c r="L45" t="n">
-        <v>413.411296303785</v>
+        <v>705.5137887733762</v>
       </c>
       <c r="M45" t="n">
-        <v>596.5114328842975</v>
+        <v>888.6139253538887</v>
       </c>
       <c r="N45" t="n">
-        <v>786.7990900474446</v>
+        <v>1078.901582517036</v>
       </c>
       <c r="O45" t="n">
-        <v>1491.925791192272</v>
+        <v>1249.366896390163</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.597610798464</v>
+        <v>1383.038715996355</v>
       </c>
       <c r="Q45" t="n">
         <v>1706.841812808763</v>
@@ -7788,13 +7788,13 @@
         <v>832.3918074471926</v>
       </c>
       <c r="D46" t="n">
-        <v>669.0750345739633</v>
+        <v>778.3899871268576</v>
       </c>
       <c r="E46" t="n">
-        <v>502.8668287268168</v>
+        <v>612.1817812797111</v>
       </c>
       <c r="F46" t="n">
-        <v>331.0050545013772</v>
+        <v>440.3200070542715</v>
       </c>
       <c r="G46" t="n">
         <v>274.7583680195216</v>
@@ -7806,10 +7806,10 @@
         <v>58.2861426859801</v>
       </c>
       <c r="J46" t="n">
-        <v>163.9590677701344</v>
+        <v>163.9590677701342</v>
       </c>
       <c r="K46" t="n">
-        <v>469.6638334186555</v>
+        <v>469.6638334186553</v>
       </c>
       <c r="L46" t="n">
         <v>925.6726654560848</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>353.0115428257548</v>
+        <v>441.0936412218869</v>
       </c>
       <c r="L2" t="n">
-        <v>492.6602608458213</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>491.7391777692225</v>
       </c>
       <c r="P2" t="n">
         <v>491.9235802234297</v>
       </c>
       <c r="Q2" t="n">
-        <v>490.4728930177964</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8063,25 +8063,25 @@
         <v>476.7474522465317</v>
       </c>
       <c r="L3" t="n">
-        <v>93.69424344789836</v>
+        <v>176.5420314122451</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>477.4449989255264</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>477.5201081354206</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>476.1190596180271</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>477.0952567021769</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>204.6504234091432</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>365.9171811873637</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8221,22 +8221,22 @@
         <v>490.1128192080077</v>
       </c>
       <c r="L5" t="n">
-        <v>355.5589844635682</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>491.7794813126303</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>491.6278412476444</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>491.7391777692225</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>491.9235802234297</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>353.3716166355434</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>476.7474522465317</v>
       </c>
       <c r="L6" t="n">
-        <v>458.5058013531572</v>
+        <v>101.2161050255872</v>
       </c>
       <c r="M6" t="n">
         <v>477.4449989255264</v>
       </c>
       <c r="N6" t="n">
-        <v>475.6912466267401</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>476.1190596180271</v>
       </c>
       <c r="Q6" t="n">
-        <v>477.0952567021769</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>492.6602608458214</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4219775383594</v>
+        <v>442.7603033265094</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>491.6278412476444</v>
       </c>
       <c r="O8" t="n">
-        <v>491.7391777692225</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>491.9235802234297</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>490.4728930177965</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8543,7 +8543,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>182.891834489246</v>
+        <v>475.6912466267401</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,10 +8552,10 @@
         <v>476.1190596180271</v>
       </c>
       <c r="Q9" t="n">
-        <v>477.0952567021769</v>
+        <v>93.92619502264742</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>70.44393978290971</v>
       </c>
       <c r="K10" t="n">
-        <v>32.73339024803157</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>92.68338606792202</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>222.3137689653923</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>24.14603960530908</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>88.81232092143952</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>262.1384637029489</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>319.3261784069439</v>
+        <v>167.7786394474071</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>372.2833678977448</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>95.91595959560789</v>
+        <v>373.9240381644463</v>
       </c>
       <c r="M13" t="n">
         <v>369.017377461416</v>
       </c>
       <c r="N13" t="n">
-        <v>369.7566087215869</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>379.548394454734</v>
+        <v>221.5165113609955</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>246.4598085707008</v>
       </c>
       <c r="K14" t="n">
-        <v>92.68338606792244</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>12.16088310294907</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>262.1384637029489</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>191.4728877750968</v>
       </c>
       <c r="Q15" t="n">
         <v>372.2833678977448</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>373.9240381644463</v>
       </c>
       <c r="M16" t="n">
-        <v>121.7160080636169</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>121.716008063617</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>92.68338606792241</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>233.1730986437211</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>13.28670992697977</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>191.4728877750959</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.2833678977448</v>
+        <v>245.0089846485954</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>373.9240381644463</v>
       </c>
       <c r="M19" t="n">
-        <v>233.3511398876281</v>
+        <v>299.4860847959973</v>
       </c>
       <c r="N19" t="n">
         <v>369.7566087215869</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>246.4598085707015</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>246.4598085707008</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>113.0854766318261</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>262.1384637029489</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>245.0089846485963</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9570,7 +9570,7 @@
         <v>369.017377461416</v>
       </c>
       <c r="N22" t="n">
-        <v>147.3227934522297</v>
+        <v>221.5165113609955</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>300.178064641062</v>
+        <v>286.0145470405744</v>
       </c>
       <c r="L23" t="n">
-        <v>524.7143987438473</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>507.4016638052739</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>178.6961097294445</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>375.2239403347751</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>286.0145470405744</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>286.0145470405748</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>76.72221946283494</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>593.5547435684967</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>245.0089846485954</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464867</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>444.5775905690784</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>492.0304571184523</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>286.0145470405746</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>268.7032329762843</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>245.0089846485954</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517238</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10281,7 +10281,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160404</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.9449134420069</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>286.0145470405744</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>496.5423341269451</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>492.0304571184523</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10430,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>618.3873935037149</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>113.8873651870116</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.38959784432</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>51.88956952761663</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517238</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548557</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>286.0145470405748</v>
+        <v>286.0145470405746</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>540.0620073451522</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>563.7562556728409</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517238</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072371</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>185.1582924162824</v>
+        <v>237.3596461957211</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>496.5423341269451</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>545.4719789890302</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,16 +10901,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>618.3873935037149</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>268.7032329762843</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>51.88956952761684</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,16 +11071,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>492.0304571184522</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>290.8011680662995</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>286.0145470405746</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>245.0089846485956</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>245.0089846485954</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039381</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>569.1320609722388</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>367.4759867152917</v>
       </c>
       <c r="M44" t="n">
-        <v>179.0855837636782</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>492.0304571184523</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>507.4016638052739</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>540.0620073451523</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>245.0089846485954</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517238</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072371</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.7610525366413</v>
+        <v>224.7503954518866</v>
       </c>
       <c r="H11" t="n">
         <v>279.173275348645</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>113.708050248081</v>
+        <v>211.9985194797939</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6485907695674</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9060226444024</v>
@@ -23436,7 +23436,7 @@
         <v>136.2380052406268</v>
       </c>
       <c r="I13" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.61627769000395</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.4371569389832</v>
       </c>
       <c r="T13" t="n">
-        <v>125.8081729363663</v>
+        <v>141.3147696196823</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>319.8080142584984</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>158.8253813523847</v>
+        <v>279.173275348645</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.88934070229652</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9060226444024</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>136.2380052406268</v>
       </c>
       <c r="I16" t="n">
-        <v>78.0694978395793</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3450561584638</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.14672192239956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>176.3495669203105</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.7610525366413</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.9985194797939</v>
@@ -23791,10 +23791,10 @@
         <v>255.6485907695674</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>171.4110163495156</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4740366306109252</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>125.8081729363663</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9060226444024</v>
       </c>
       <c r="H19" t="n">
         <v>136.2380052406268</v>
       </c>
       <c r="I19" t="n">
-        <v>78.0694978395793</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>156.4371569389832</v>
       </c>
       <c r="T19" t="n">
-        <v>237.9647055579529</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3450561584638</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>150.8007165002293</v>
       </c>
       <c r="G20" t="n">
-        <v>182.377107163294</v>
+        <v>398.7610525366413</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>45.657621717041</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>74.65145085461688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.2380052406268</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>156.4371569389832</v>
       </c>
       <c r="T22" t="n">
         <v>237.9647055579529</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3450561584638</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>362.5757345771756</v>
       </c>
       <c r="G23" t="n">
-        <v>398.7610525366413</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>279.173275348645</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.9985194797939</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6485907695674</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>52.91181909026898</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2218030273653</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>14.53602749778213</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>330.7409787927159</v>
       </c>
       <c r="H26" t="n">
         <v>279.173275348645</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.9985194797939</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6485907695674</v>
@@ -24505,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>63.65911543081529</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>108.2218030273654</v>
+        <v>30.15230518778608</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.7968940907912</v>
+        <v>372.3815990761992</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>279.173275348645</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6485907695674</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2218030273653</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>92.6055253373612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.47804195486003</v>
+        <v>140.8690616034879</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.7610525366413</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>279.173275348645</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.9985194797939</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6485907695674</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.2218030273653</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>92.6055253373612</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>102.0500700348431</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.7610525366413</v>
       </c>
       <c r="H35" t="n">
-        <v>279.173275348645</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>64.42205287423616</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2218030273653</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>30.15230518778608</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>171.010488206344</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>256.6312331148505</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>108.2218030273653</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>108.2218030273654</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>266.3599485723573</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>182.4673839692636</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>108.2218030273653</v>
+        <v>14.53602749778213</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.06949783957928</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>15.61627769000395</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49.40784386604656</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.35348503067047</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>130.5133051847157</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6485907695674</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>108.2218030273653</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2218030273654</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367205.9902722833</v>
+        <v>367205.9902722832</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367205.9902722833</v>
+        <v>367205.9902722832</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>522176.9754471345</v>
+        <v>522176.9754471343</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>522176.9754471344</v>
+        <v>522176.9754471343</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>522176.9754471343</v>
+        <v>522176.9754471345</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>522176.9754471344</v>
+        <v>522176.9754471345</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>522176.9754471344</v>
+        <v>522176.9754471345</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069773</v>
+        <v>364026.667506977</v>
       </c>
       <c r="C2" t="n">
         <v>364026.6675069769</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.667506977</v>
       </c>
       <c r="E2" t="n">
-        <v>191923.391398443</v>
+        <v>191923.3913984429</v>
       </c>
       <c r="F2" t="n">
-        <v>191923.391398443</v>
+        <v>191923.3913984428</v>
       </c>
       <c r="G2" t="n">
-        <v>191923.3913984429</v>
+        <v>191923.3913984428</v>
       </c>
       <c r="H2" t="n">
-        <v>191923.3913984429</v>
+        <v>191923.3913984428</v>
       </c>
       <c r="I2" t="n">
         <v>260832.0388636551</v>
       </c>
       <c r="J2" t="n">
-        <v>260832.038863655</v>
+        <v>260832.0388636552</v>
       </c>
       <c r="K2" t="n">
         <v>260832.0388636551</v>
       </c>
       <c r="L2" t="n">
-        <v>260832.0388636552</v>
+        <v>260832.0388636551</v>
       </c>
       <c r="M2" t="n">
-        <v>260832.038863655</v>
+        <v>260832.0388636551</v>
       </c>
       <c r="N2" t="n">
         <v>260832.0388636552</v>
       </c>
       <c r="O2" t="n">
-        <v>260832.0388636552</v>
+        <v>260832.0388636551</v>
       </c>
       <c r="P2" t="n">
-        <v>260832.0388636552</v>
+        <v>260832.0388636551</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306688.2801512369</v>
+        <v>306688.280151237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>72923.13427632529</v>
+        <v>72923.13427632536</v>
       </c>
       <c r="J3" t="n">
         <v>118877.4852585029</v>
@@ -26426,40 +26426,40 @@
         <v>246515.4290948263</v>
       </c>
       <c r="E4" t="n">
-        <v>22137.87450108959</v>
+        <v>22137.87450108958</v>
       </c>
       <c r="F4" t="n">
         <v>22137.87450108959</v>
       </c>
       <c r="G4" t="n">
+        <v>22137.87450108958</v>
+      </c>
+      <c r="H4" t="n">
         <v>22137.87450108959</v>
       </c>
-      <c r="H4" t="n">
-        <v>22137.8745010896</v>
-      </c>
       <c r="I4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="J4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="K4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="L4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="M4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="N4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="O4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
       <c r="P4" t="n">
-        <v>53242.0328916721</v>
+        <v>53242.03289167209</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61251.97167952246</v>
+        <v>61251.97167952247</v>
       </c>
       <c r="C5" t="n">
         <v>61251.97167952247</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96003.27126665766</v>
+        <v>-96003.27126665805</v>
       </c>
       <c r="C6" t="n">
-        <v>56259.26673262812</v>
+        <v>56259.26673262818</v>
       </c>
       <c r="D6" t="n">
-        <v>56259.26673262811</v>
+        <v>56259.2667326283</v>
       </c>
       <c r="E6" t="n">
-        <v>-172848.9914702835</v>
+        <v>-173537.4045747178</v>
       </c>
       <c r="F6" t="n">
-        <v>133839.2886809534</v>
+        <v>133150.8755765191</v>
       </c>
       <c r="G6" t="n">
-        <v>133839.2886809533</v>
+        <v>133150.8755765192</v>
       </c>
       <c r="H6" t="n">
-        <v>133839.2886809533</v>
+        <v>133150.8755765191</v>
       </c>
       <c r="I6" t="n">
-        <v>82047.54671743538</v>
+        <v>81634.76820286197</v>
       </c>
       <c r="J6" t="n">
-        <v>36093.19573525767</v>
+        <v>35680.41722068455</v>
       </c>
       <c r="K6" t="n">
-        <v>154970.6809937606</v>
+        <v>154557.9024791874</v>
       </c>
       <c r="L6" t="n">
-        <v>154970.6809937608</v>
+        <v>154557.9024791873</v>
       </c>
       <c r="M6" t="n">
-        <v>154970.6809937606</v>
+        <v>154557.9024791874</v>
       </c>
       <c r="N6" t="n">
-        <v>154970.6809937607</v>
+        <v>154557.9024791874</v>
       </c>
       <c r="O6" t="n">
-        <v>154970.6809937607</v>
+        <v>154557.9024791873</v>
       </c>
       <c r="P6" t="n">
-        <v>154970.6809937607</v>
+        <v>154557.9024791873</v>
       </c>
     </row>
   </sheetData>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.2285651615529</v>
+        <v>274.2285651615531</v>
       </c>
       <c r="J4" t="n">
-        <v>454.3482184131985</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>371.067865018423</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27441,7 +27441,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>155.2362777202729</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.36618825676467</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27.36618825676446</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60.52638031962672</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.9211443932054</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>380.42711288947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>83.75073407506085</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>27.36618825676416</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.36618825676436</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>92.90262576266382</v>
+        <v>93.61695237989414</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.8545490921263</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>331.9495305872692</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.36618825676443</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>27.36618825676425</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>91.34222650409232</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>166.2837651585086</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I11" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J11" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K11" t="n">
         <v>195.2093233973218</v>
@@ -31776,7 +31776,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O11" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P11" t="n">
         <v>220.6801663959523</v>
@@ -31785,13 +31785,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R11" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S11" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T11" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U11" t="n">
         <v>0.1227695399843615</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H12" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I12" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J12" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L12" t="n">
         <v>178.2817672918984</v>
@@ -31864,16 +31864,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R12" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S12" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T12" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H13" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I13" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J13" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K13" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L13" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M13" t="n">
         <v>107.9062808432682</v>
@@ -31934,13 +31934,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O13" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P13" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R13" t="n">
         <v>30.95194948969463</v>
@@ -31995,10 +31995,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I14" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J14" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K14" t="n">
         <v>195.2093233973218</v>
@@ -32013,7 +32013,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O14" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P14" t="n">
         <v>220.6801663959523</v>
@@ -32022,13 +32022,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R14" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S14" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T14" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U14" t="n">
         <v>0.1227695399843615</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H15" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I15" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J15" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L15" t="n">
         <v>178.2817672918984</v>
@@ -32101,16 +32101,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R15" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S15" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T15" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H16" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I16" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J16" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K16" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L16" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M16" t="n">
         <v>107.9062808432682</v>
@@ -32171,13 +32171,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O16" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P16" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R16" t="n">
         <v>30.95194948969463</v>
@@ -32232,10 +32232,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I17" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J17" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K17" t="n">
         <v>195.2093233973218</v>
@@ -32250,7 +32250,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O17" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P17" t="n">
         <v>220.6801663959523</v>
@@ -32259,13 +32259,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R17" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S17" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T17" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U17" t="n">
         <v>0.1227695399843615</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H18" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I18" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J18" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K18" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L18" t="n">
         <v>178.2817672918984</v>
@@ -32338,16 +32338,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R18" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S18" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T18" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H19" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I19" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J19" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K19" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L19" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M19" t="n">
         <v>107.9062808432682</v>
@@ -32408,13 +32408,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O19" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P19" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R19" t="n">
         <v>30.95194948969463</v>
@@ -32469,10 +32469,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I20" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J20" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K20" t="n">
         <v>195.2093233973218</v>
@@ -32487,7 +32487,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O20" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P20" t="n">
         <v>220.6801663959523</v>
@@ -32496,13 +32496,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R20" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S20" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T20" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U20" t="n">
         <v>0.1227695399843615</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H21" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I21" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J21" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K21" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L21" t="n">
         <v>178.2817672918984</v>
@@ -32575,16 +32575,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R21" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S21" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T21" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H22" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I22" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J22" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K22" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L22" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M22" t="n">
         <v>107.9062808432682</v>
@@ -32645,13 +32645,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O22" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P22" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R22" t="n">
         <v>30.95194948969463</v>
@@ -32706,10 +32706,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I23" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J23" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K23" t="n">
         <v>195.2093233973218</v>
@@ -32724,7 +32724,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O23" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P23" t="n">
         <v>220.6801663959523</v>
@@ -32733,13 +32733,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R23" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S23" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T23" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U23" t="n">
         <v>0.1227695399843615</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H24" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I24" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J24" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K24" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L24" t="n">
         <v>178.2817672918984</v>
@@ -32812,16 +32812,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R24" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S24" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T24" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,19 +32861,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H25" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I25" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J25" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K25" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L25" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M25" t="n">
         <v>107.9062808432682</v>
@@ -32882,13 +32882,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O25" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P25" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R25" t="n">
         <v>30.95194948969463</v>
@@ -32943,10 +32943,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I26" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J26" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K26" t="n">
         <v>195.2093233973218</v>
@@ -32961,7 +32961,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O26" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P26" t="n">
         <v>220.6801663959523</v>
@@ -32970,13 +32970,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R26" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S26" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T26" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U26" t="n">
         <v>0.1227695399843615</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H27" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I27" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J27" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L27" t="n">
         <v>178.2817672918984</v>
@@ -33049,16 +33049,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R27" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S27" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T27" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,19 +33098,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H28" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I28" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J28" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L28" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M28" t="n">
         <v>107.9062808432682</v>
@@ -33119,13 +33119,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O28" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P28" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R28" t="n">
         <v>30.95194948969463</v>
@@ -33180,10 +33180,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I29" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J29" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K29" t="n">
         <v>195.2093233973218</v>
@@ -33198,7 +33198,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O29" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P29" t="n">
         <v>220.6801663959523</v>
@@ -33207,13 +33207,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R29" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S29" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T29" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U29" t="n">
         <v>0.1227695399843615</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H30" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I30" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J30" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K30" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L30" t="n">
         <v>178.2817672918984</v>
@@ -33286,16 +33286,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R30" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S30" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T30" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,19 +33335,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H31" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I31" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J31" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L31" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M31" t="n">
         <v>107.9062808432682</v>
@@ -33356,13 +33356,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O31" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P31" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R31" t="n">
         <v>30.95194948969463</v>
@@ -33417,10 +33417,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I32" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J32" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K32" t="n">
         <v>195.2093233973218</v>
@@ -33435,7 +33435,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O32" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P32" t="n">
         <v>220.6801663959523</v>
@@ -33444,13 +33444,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R32" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S32" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T32" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U32" t="n">
         <v>0.1227695399843615</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H33" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I33" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J33" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K33" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L33" t="n">
         <v>178.2817672918984</v>
@@ -33523,16 +33523,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R33" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S33" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T33" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,19 +33572,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H34" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I34" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J34" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L34" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M34" t="n">
         <v>107.9062808432682</v>
@@ -33593,13 +33593,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O34" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P34" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R34" t="n">
         <v>30.95194948969463</v>
@@ -33654,10 +33654,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I35" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J35" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K35" t="n">
         <v>195.2093233973218</v>
@@ -33672,7 +33672,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O35" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P35" t="n">
         <v>220.6801663959523</v>
@@ -33681,13 +33681,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R35" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S35" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T35" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U35" t="n">
         <v>0.1227695399843615</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H36" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I36" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J36" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L36" t="n">
         <v>178.2817672918984</v>
@@ -33760,16 +33760,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R36" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S36" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T36" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,19 +33809,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H37" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I37" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J37" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K37" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L37" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M37" t="n">
         <v>107.9062808432682</v>
@@ -33830,13 +33830,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O37" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P37" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R37" t="n">
         <v>30.95194948969463</v>
@@ -33891,10 +33891,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I38" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J38" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K38" t="n">
         <v>195.2093233973218</v>
@@ -33909,7 +33909,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O38" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P38" t="n">
         <v>220.6801663959523</v>
@@ -33918,13 +33918,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R38" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S38" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T38" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U38" t="n">
         <v>0.1227695399843615</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H39" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I39" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J39" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L39" t="n">
         <v>178.2817672918984</v>
@@ -33997,16 +33997,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R39" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S39" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T39" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,19 +34046,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H40" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J40" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K40" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L40" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M40" t="n">
         <v>107.9062808432682</v>
@@ -34067,13 +34067,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O40" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P40" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R40" t="n">
         <v>30.95194948969463</v>
@@ -34128,10 +34128,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I41" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J41" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K41" t="n">
         <v>195.2093233973218</v>
@@ -34146,7 +34146,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O41" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P41" t="n">
         <v>220.6801663959523</v>
@@ -34155,13 +34155,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R41" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S41" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T41" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U41" t="n">
         <v>0.1227695399843615</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H42" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I42" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J42" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K42" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L42" t="n">
         <v>178.2817672918984</v>
@@ -34234,16 +34234,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R42" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S42" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T42" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,19 +34283,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H43" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I43" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J43" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K43" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L43" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M43" t="n">
         <v>107.9062808432682</v>
@@ -34304,13 +34304,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O43" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P43" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R43" t="n">
         <v>30.95194948969463</v>
@@ -34365,10 +34365,10 @@
         <v>15.71641939206054</v>
       </c>
       <c r="I44" t="n">
-        <v>59.16340862808879</v>
+        <v>59.1634086280888</v>
       </c>
       <c r="J44" t="n">
-        <v>130.2488905530964</v>
+        <v>130.2488905530965</v>
       </c>
       <c r="K44" t="n">
         <v>195.2093233973218</v>
@@ -34383,7 +34383,7 @@
         <v>273.8259492907451</v>
       </c>
       <c r="O44" t="n">
-        <v>258.5660791255014</v>
+        <v>258.5660791255015</v>
       </c>
       <c r="P44" t="n">
         <v>220.6801663959523</v>
@@ -34392,13 +34392,13 @@
         <v>165.7216145123279</v>
       </c>
       <c r="R44" t="n">
-        <v>96.39902645053323</v>
+        <v>96.39902645053324</v>
       </c>
       <c r="S44" t="n">
         <v>34.97013615492052</v>
       </c>
       <c r="T44" t="n">
-        <v>6.717795766019287</v>
+        <v>6.717795766019288</v>
       </c>
       <c r="U44" t="n">
         <v>0.1227695399843615</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.821093686345881</v>
+        <v>0.8210936863458811</v>
       </c>
       <c r="H45" t="n">
-        <v>7.930036391814167</v>
+        <v>7.930036391814168</v>
       </c>
       <c r="I45" t="n">
         <v>28.27011156936477</v>
       </c>
       <c r="J45" t="n">
-        <v>77.57534691919572</v>
+        <v>77.57534691919574</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5886239043697</v>
+        <v>132.5886239043698</v>
       </c>
       <c r="L45" t="n">
         <v>178.2817672918984</v>
@@ -34471,16 +34471,16 @@
         <v>104.8118888044321</v>
       </c>
       <c r="R45" t="n">
-        <v>50.9798343154048</v>
+        <v>50.97983431540481</v>
       </c>
       <c r="S45" t="n">
         <v>15.25145509506493</v>
       </c>
       <c r="T45" t="n">
-        <v>3.30958376206958</v>
+        <v>3.309583762069581</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05401932147012377</v>
+        <v>0.05401932147012378</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,19 +34520,19 @@
         <v>0.6883773643078064</v>
       </c>
       <c r="H46" t="n">
-        <v>6.120300566300319</v>
+        <v>6.12030056630032</v>
       </c>
       <c r="I46" t="n">
-        <v>20.70138473754749</v>
+        <v>20.7013847375475</v>
       </c>
       <c r="J46" t="n">
         <v>48.66827965656191</v>
       </c>
       <c r="K46" t="n">
-        <v>79.97693378048875</v>
+        <v>79.97693378048876</v>
       </c>
       <c r="L46" t="n">
-        <v>102.3429401444533</v>
+        <v>102.3429401444534</v>
       </c>
       <c r="M46" t="n">
         <v>107.9062808432682</v>
@@ -34541,13 +34541,13 @@
         <v>105.3405106672119</v>
       </c>
       <c r="O46" t="n">
-        <v>97.29901145688888</v>
+        <v>97.29901145688889</v>
       </c>
       <c r="P46" t="n">
-        <v>83.25611322500956</v>
+        <v>83.25611322500957</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.64221729672004</v>
+        <v>57.64221729672005</v>
       </c>
       <c r="R46" t="n">
         <v>30.95194948969463</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>317.2469420309454</v>
+        <v>405.3290404270775</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>454.3482184131984</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.3482184131984</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34783,25 +34783,25 @@
         <v>454.3482184131984</v>
       </c>
       <c r="L3" t="n">
-        <v>71.1791567336688</v>
+        <v>154.0269446980156</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>454.3482184131984</v>
       </c>
-      <c r="P3" t="n">
-        <v>454.3482184131984</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>183.6857689564312</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>343.3417412958779</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34941,22 +34941,22 @@
         <v>454.3482184131984</v>
       </c>
       <c r="L5" t="n">
-        <v>317.2469420309453</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>454.3482184131984</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>454.3482184131984</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>317.2469420309454</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="L6" t="n">
-        <v>435.9907146389276</v>
+        <v>78.70101831135764</v>
       </c>
       <c r="M6" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>454.3482184131984</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>454.3482184131984</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="M8" t="n">
-        <v>435.9907146389276</v>
+        <v>405.3290404270775</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="O8" t="n">
-        <v>454.3482184131984</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>454.3482184131984</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>454.3482184131984</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>161.5488062757043</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>454.3482184131984</v>
       </c>
       <c r="Q9" t="n">
-        <v>454.3482184131984</v>
+        <v>71.17915673366892</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>49.80718379900784</v>
       </c>
       <c r="K10" t="n">
-        <v>11.76873579531957</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J11" t="n">
-        <v>100.8289310675099</v>
+        <v>193.5123171354319</v>
       </c>
       <c r="K11" t="n">
         <v>159.4447226025125</v>
@@ -35418,22 +35418,22 @@
         <v>203.862384830904</v>
       </c>
       <c r="M11" t="n">
-        <v>454.3482184131984</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N11" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O11" t="n">
-        <v>245.3211593747864</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P11" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q11" t="n">
-        <v>129.5969399077298</v>
+        <v>129.5969399077299</v>
       </c>
       <c r="R11" t="n">
-        <v>61.36637655573676</v>
+        <v>215.1427990585157</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J12" t="n">
-        <v>56.96423258586239</v>
+        <v>56.9642325858624</v>
       </c>
       <c r="K12" t="n">
         <v>110.1893900710364</v>
@@ -35497,22 +35497,22 @@
         <v>155.7666805776689</v>
       </c>
       <c r="M12" t="n">
-        <v>273.7619538310481</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N12" t="n">
-        <v>454.3482184131984</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O12" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P12" t="n">
+        <v>302.8006794536617</v>
+      </c>
+      <c r="Q12" t="n">
         <v>454.3482184131984</v>
       </c>
-      <c r="Q12" t="n">
-        <v>82.06485051545361</v>
-      </c>
       <c r="R12" t="n">
-        <v>27.30691492126066</v>
+        <v>133.8276222797514</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>106.7403283678326</v>
       </c>
       <c r="K13" t="n">
-        <v>59.01227932777675</v>
+        <v>308.7926925742637</v>
       </c>
       <c r="L13" t="n">
-        <v>176.34013984436</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="M13" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="N13" t="n">
-        <v>454.3482184131984</v>
+        <v>84.59160969161155</v>
       </c>
       <c r="O13" t="n">
-        <v>454.3482184131984</v>
+        <v>296.3163353194599</v>
       </c>
       <c r="P13" t="n">
-        <v>60.87531256702307</v>
+        <v>60.87531256702309</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.02265453193509</v>
+        <v>33.0226545319351</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J14" t="n">
-        <v>100.8289310675099</v>
+        <v>347.2887396382108</v>
       </c>
       <c r="K14" t="n">
-        <v>252.1281086704349</v>
+        <v>159.4447226025125</v>
       </c>
       <c r="L14" t="n">
         <v>203.862384830904</v>
       </c>
       <c r="M14" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N14" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O14" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P14" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q14" t="n">
-        <v>129.5969399077298</v>
+        <v>129.5969399077299</v>
       </c>
       <c r="R14" t="n">
-        <v>215.1427990585157</v>
+        <v>61.36637655573677</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.7919731470535</v>
+        <v>12.09772481936477</v>
       </c>
       <c r="J15" t="n">
-        <v>56.96423258586239</v>
+        <v>56.9642325858624</v>
       </c>
       <c r="K15" t="n">
         <v>110.1893900710364</v>
@@ -35734,22 +35734,22 @@
         <v>155.7666805776689</v>
       </c>
       <c r="M15" t="n">
-        <v>197.1105160125577</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N15" t="n">
-        <v>454.3482184131984</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O15" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P15" t="n">
-        <v>135.0220400062545</v>
+        <v>326.4949277813514</v>
       </c>
       <c r="Q15" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="R15" t="n">
-        <v>27.30691492126066</v>
+        <v>133.8276222797514</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>454.3482184131984</v>
       </c>
       <c r="M16" t="n">
-        <v>207.0468490153993</v>
+        <v>85.33084095178241</v>
       </c>
       <c r="N16" t="n">
-        <v>84.59160969161154</v>
+        <v>84.59160969161155</v>
       </c>
       <c r="O16" t="n">
-        <v>74.79982395846443</v>
+        <v>196.5158320220815</v>
       </c>
       <c r="P16" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q16" t="n">
         <v>185.9251771358735</v>
@@ -35892,22 +35892,22 @@
         <v>203.862384830904</v>
       </c>
       <c r="M17" t="n">
-        <v>324.7178355157286</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N17" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O17" t="n">
-        <v>221.1751197694773</v>
+        <v>454.3482184131984</v>
       </c>
       <c r="P17" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q17" t="n">
-        <v>129.5969399077298</v>
+        <v>142.8836498347097</v>
       </c>
       <c r="R17" t="n">
-        <v>215.1427990585157</v>
+        <v>61.36637655573677</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J18" t="n">
-        <v>56.96423258586239</v>
+        <v>352.0172552824191</v>
       </c>
       <c r="K18" t="n">
         <v>110.1893900710364</v>
@@ -35971,19 +35971,19 @@
         <v>155.7666805776689</v>
       </c>
       <c r="M18" t="n">
-        <v>376.4225206847045</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N18" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O18" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P18" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q18" t="n">
-        <v>454.3482184131984</v>
+        <v>327.073835164049</v>
       </c>
       <c r="R18" t="n">
         <v>133.8276222797514</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>28.03152367266004</v>
+        <v>28.03152367266005</v>
       </c>
       <c r="K19" t="n">
-        <v>59.01227932777675</v>
+        <v>308.7926925742637</v>
       </c>
       <c r="L19" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="M19" t="n">
-        <v>318.6819808394105</v>
+        <v>384.8169257477797</v>
       </c>
       <c r="N19" t="n">
         <v>454.3482184131984</v>
       </c>
       <c r="O19" t="n">
-        <v>74.79982395846443</v>
+        <v>74.79982395846444</v>
       </c>
       <c r="P19" t="n">
-        <v>376.7906707218792</v>
+        <v>60.87531256702309</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.02265453193509</v>
+        <v>33.0226545319351</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>203.862384830904</v>
       </c>
       <c r="M20" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N20" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O20" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P20" t="n">
-        <v>429.5646131564225</v>
+        <v>183.104804585721</v>
       </c>
       <c r="Q20" t="n">
-        <v>129.5969399077298</v>
+        <v>376.0567484784307</v>
       </c>
       <c r="R20" t="n">
-        <v>61.36637655573676</v>
+        <v>61.36637655573677</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J21" t="n">
         <v>352.0172552824191</v>
@@ -36208,22 +36208,22 @@
         <v>155.7666805776689</v>
       </c>
       <c r="M21" t="n">
-        <v>298.0351095414347</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N21" t="n">
-        <v>454.3482184131984</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O21" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P21" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.06485051545361</v>
+        <v>327.0738351640499</v>
       </c>
       <c r="R21" t="n">
-        <v>27.30691492126066</v>
+        <v>133.8276222797514</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>28.03152367266004</v>
+        <v>106.7403283678326</v>
       </c>
       <c r="K22" t="n">
         <v>308.7926925742637</v>
@@ -36290,16 +36290,16 @@
         <v>454.3482184131984</v>
       </c>
       <c r="N22" t="n">
-        <v>231.9144031438412</v>
+        <v>306.108121052607</v>
       </c>
       <c r="O22" t="n">
-        <v>74.79982395846443</v>
+        <v>74.79982395846444</v>
       </c>
       <c r="P22" t="n">
-        <v>60.87531256702307</v>
+        <v>60.87531256702309</v>
       </c>
       <c r="Q22" t="n">
-        <v>185.9251771358735</v>
+        <v>33.0226545319351</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J23" t="n">
-        <v>100.8289310675099</v>
+        <v>496.5150105701626</v>
       </c>
       <c r="K23" t="n">
-        <v>459.6227872435745</v>
+        <v>445.4592696430869</v>
       </c>
       <c r="L23" t="n">
-        <v>728.5767835747513</v>
+        <v>203.862384830904</v>
       </c>
       <c r="M23" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N23" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O23" t="n">
-        <v>728.5767835747513</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P23" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q23" t="n">
-        <v>129.5969399077298</v>
+        <v>626.4140180519069</v>
       </c>
       <c r="R23" t="n">
-        <v>61.36637655573676</v>
+        <v>215.1427990585157</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12.09772481936476</v>
+        <v>12.09772481936477</v>
       </c>
       <c r="J24" t="n">
-        <v>235.6603423153069</v>
+        <v>352.0172552824191</v>
       </c>
       <c r="K24" t="n">
         <v>110.1893900710364</v>
@@ -36448,16 +36448,16 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N24" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O24" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P24" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q24" t="n">
-        <v>573.6457038173405</v>
+        <v>457.2887908502287</v>
       </c>
       <c r="R24" t="n">
         <v>27.30691492126066</v>
@@ -36533,7 +36533,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P25" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q25" t="n">
         <v>185.9251771358735</v>
@@ -36597,22 +36597,22 @@
         <v>496.5150105701626</v>
       </c>
       <c r="K26" t="n">
-        <v>159.4447226025125</v>
+        <v>445.4592696430869</v>
       </c>
       <c r="L26" t="n">
         <v>203.862384830904</v>
       </c>
       <c r="M26" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N26" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O26" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P26" t="n">
-        <v>469.1193516262958</v>
+        <v>183.104804585721</v>
       </c>
       <c r="Q26" t="n">
         <v>626.4140180519069</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J27" t="n">
-        <v>56.96423258586239</v>
+        <v>352.0172552824191</v>
       </c>
       <c r="K27" t="n">
-        <v>186.9116095338713</v>
+        <v>110.1893900710364</v>
       </c>
       <c r="L27" t="n">
         <v>155.7666805776689</v>
@@ -36685,19 +36685,19 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N27" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O27" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P27" t="n">
-        <v>728.5767835747513</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.06485051545361</v>
+        <v>327.073835164049</v>
       </c>
       <c r="R27" t="n">
-        <v>27.30691492126066</v>
+        <v>133.8276222797514</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>106.7403283678326</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7926925742635</v>
+        <v>308.7926925742637</v>
       </c>
       <c r="L28" t="n">
         <v>460.6149818559895</v>
@@ -36770,7 +36770,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P28" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q28" t="n">
         <v>185.9251771358735</v>
@@ -36834,28 +36834,28 @@
         <v>496.5150105701626</v>
       </c>
       <c r="K29" t="n">
-        <v>604.0223131715909</v>
+        <v>159.4447226025125</v>
       </c>
       <c r="L29" t="n">
         <v>203.862384830904</v>
       </c>
       <c r="M29" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N29" t="n">
-        <v>728.5767835747513</v>
+        <v>236.5463264562991</v>
       </c>
       <c r="O29" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P29" t="n">
-        <v>183.104804585721</v>
+        <v>469.1193516262956</v>
       </c>
       <c r="Q29" t="n">
-        <v>129.5969399077298</v>
+        <v>626.4140180519069</v>
       </c>
       <c r="R29" t="n">
-        <v>61.36637655573676</v>
+        <v>215.1427990585157</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J30" t="n">
         <v>352.0172552824191</v>
@@ -36922,16 +36922,16 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N30" t="n">
-        <v>460.9129876865339</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O30" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P30" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.06485051545361</v>
+        <v>327.073835164049</v>
       </c>
       <c r="R30" t="n">
         <v>133.8276222797514</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>106.7403283678324</v>
+        <v>106.7403283678326</v>
       </c>
       <c r="K31" t="n">
         <v>308.7926925742637</v>
@@ -37001,13 +37001,13 @@
         <v>503.0434474798852</v>
       </c>
       <c r="N31" t="n">
-        <v>486.6450671076522</v>
+        <v>486.645067107652</v>
       </c>
       <c r="O31" t="n">
         <v>456.3173232546293</v>
       </c>
       <c r="P31" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q31" t="n">
         <v>185.9251771358735</v>
@@ -37068,28 +37068,28 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J32" t="n">
-        <v>290.7738445095168</v>
+        <v>496.5150105701626</v>
       </c>
       <c r="K32" t="n">
-        <v>159.4447226025125</v>
+        <v>445.4592696430869</v>
       </c>
       <c r="L32" t="n">
         <v>203.862384830904</v>
       </c>
       <c r="M32" t="n">
-        <v>728.5767835747513</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N32" t="n">
-        <v>728.5767835747513</v>
+        <v>236.5463264562991</v>
       </c>
       <c r="O32" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P32" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q32" t="n">
-        <v>129.5969399077298</v>
+        <v>626.4140180519069</v>
       </c>
       <c r="R32" t="n">
         <v>215.1427990585157</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.09772481936476</v>
+        <v>12.09772481936477</v>
       </c>
       <c r="J33" t="n">
-        <v>56.96423258586239</v>
+        <v>56.9642325858624</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1893900710364</v>
+        <v>728.5767835747513</v>
       </c>
       <c r="L33" t="n">
         <v>155.7666805776689</v>
       </c>
       <c r="M33" t="n">
-        <v>298.8369980966202</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N33" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O33" t="n">
-        <v>728.5767835747513</v>
+        <v>172.1871857304313</v>
       </c>
       <c r="P33" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.06485051545361</v>
+        <v>133.9544200430703</v>
       </c>
       <c r="R33" t="n">
         <v>27.30691492126066</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>106.7403283678326</v>
+        <v>106.7403283678324</v>
       </c>
       <c r="K34" t="n">
         <v>308.7926925742637</v>
@@ -37244,7 +37244,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P34" t="n">
-        <v>376.7906707218788</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q34" t="n">
         <v>185.9251771358735</v>
@@ -37314,16 +37314,16 @@
         <v>203.862384830904</v>
       </c>
       <c r="M35" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N35" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O35" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P35" t="n">
-        <v>469.1193516262958</v>
+        <v>469.1193516262956</v>
       </c>
       <c r="Q35" t="n">
         <v>626.4140180519069</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>12.09772481936476</v>
+        <v>35.7919731470535</v>
       </c>
       <c r="J36" t="n">
-        <v>56.96423258586239</v>
+        <v>56.9642325858624</v>
       </c>
       <c r="K36" t="n">
-        <v>110.1893900710364</v>
+        <v>650.2513974161886</v>
       </c>
       <c r="L36" t="n">
         <v>155.7666805776689</v>
@@ -37396,16 +37396,16 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N36" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O36" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P36" t="n">
-        <v>698.7782956790954</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.06485051545361</v>
+        <v>82.06485051545363</v>
       </c>
       <c r="R36" t="n">
         <v>133.8276222797514</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>106.7403283678326</v>
+        <v>106.7403283678324</v>
       </c>
       <c r="K37" t="n">
         <v>308.7926925742637</v>
       </c>
       <c r="L37" t="n">
-        <v>460.6149818559892</v>
+        <v>460.6149818559895</v>
       </c>
       <c r="M37" t="n">
         <v>503.0434474798852</v>
@@ -37481,7 +37481,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P37" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q37" t="n">
         <v>185.9251771358735</v>
@@ -37542,28 +37542,28 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J38" t="n">
-        <v>100.8289310675099</v>
+        <v>496.5150105701626</v>
       </c>
       <c r="K38" t="n">
-        <v>344.6030150187948</v>
+        <v>396.8043687982336</v>
       </c>
       <c r="L38" t="n">
         <v>203.862384830904</v>
       </c>
       <c r="M38" t="n">
-        <v>728.5767835747513</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N38" t="n">
         <v>236.5463264562991</v>
       </c>
       <c r="O38" t="n">
-        <v>221.1751197694773</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P38" t="n">
-        <v>183.104804585721</v>
+        <v>728.5767835747513</v>
       </c>
       <c r="Q38" t="n">
-        <v>626.4140180519069</v>
+        <v>129.5969399077299</v>
       </c>
       <c r="R38" t="n">
         <v>215.1427990585157</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>12.09772481936476</v>
+        <v>12.09772481936477</v>
       </c>
       <c r="J39" t="n">
-        <v>352.0172552824191</v>
+        <v>56.9642325858624</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1893900710364</v>
+        <v>728.5767835747513</v>
       </c>
       <c r="L39" t="n">
         <v>155.7666805776689</v>
       </c>
       <c r="M39" t="n">
-        <v>453.6528658858929</v>
+        <v>184.9496329096086</v>
       </c>
       <c r="N39" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O39" t="n">
         <v>172.1871857304313</v>
       </c>
       <c r="P39" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.06485051545361</v>
+        <v>82.06485051545363</v>
       </c>
       <c r="R39" t="n">
-        <v>133.8276222797514</v>
+        <v>79.1964844488775</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P40" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q40" t="n">
         <v>185.9251771358735</v>
@@ -37788,19 +37788,19 @@
         <v>203.862384830904</v>
       </c>
       <c r="M41" t="n">
-        <v>232.0344494478061</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N41" t="n">
-        <v>728.5767835747513</v>
+        <v>236.5463264562991</v>
       </c>
       <c r="O41" t="n">
-        <v>511.9762878357768</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P41" t="n">
-        <v>183.104804585721</v>
+        <v>469.1193516262956</v>
       </c>
       <c r="Q41" t="n">
-        <v>129.5969399077298</v>
+        <v>626.4140180519069</v>
       </c>
       <c r="R41" t="n">
         <v>215.1427990585157</v>
@@ -37870,16 +37870,16 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N42" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O42" t="n">
-        <v>417.1961703790269</v>
+        <v>172.1871857304313</v>
       </c>
       <c r="P42" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.06485051545361</v>
+        <v>327.073835164049</v>
       </c>
       <c r="R42" t="n">
         <v>133.8276222797514</v>
@@ -37955,10 +37955,10 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P43" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q43" t="n">
-        <v>185.9251771358732</v>
+        <v>185.9251771358735</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>24.61550608412529</v>
       </c>
       <c r="J44" t="n">
-        <v>100.8289310675099</v>
+        <v>496.5150105701626</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4447226025125</v>
+        <v>728.5767835747513</v>
       </c>
       <c r="L44" t="n">
-        <v>203.862384830904</v>
+        <v>571.3383715461957</v>
       </c>
       <c r="M44" t="n">
-        <v>411.1200332114843</v>
+        <v>232.0344494478062</v>
       </c>
       <c r="N44" t="n">
-        <v>728.5767835747513</v>
+        <v>236.5463264562991</v>
       </c>
       <c r="O44" t="n">
-        <v>728.5767835747513</v>
+        <v>221.1751197694774</v>
       </c>
       <c r="P44" t="n">
         <v>183.104804585721</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.5969399077298</v>
+        <v>129.5969399077299</v>
       </c>
       <c r="R44" t="n">
-        <v>215.1427990585157</v>
+        <v>61.36637655573677</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>35.7919731470535</v>
       </c>
       <c r="J45" t="n">
-        <v>56.96423258586239</v>
+        <v>352.0172552824191</v>
       </c>
       <c r="K45" t="n">
         <v>110.1893900710364</v>
@@ -38107,16 +38107,16 @@
         <v>184.9496329096086</v>
       </c>
       <c r="N45" t="n">
-        <v>192.2097547102495</v>
+        <v>192.2097547102496</v>
       </c>
       <c r="O45" t="n">
-        <v>712.2491930755835</v>
+        <v>172.1871857304313</v>
       </c>
       <c r="P45" t="n">
-        <v>135.0220400062545</v>
+        <v>135.0220400062546</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.06485051545361</v>
+        <v>327.073835164049</v>
       </c>
       <c r="R45" t="n">
         <v>133.8276222797514</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>106.7403283678326</v>
+        <v>106.7403283678324</v>
       </c>
       <c r="K46" t="n">
         <v>308.7926925742637</v>
       </c>
       <c r="L46" t="n">
-        <v>460.6149818559892</v>
+        <v>460.6149818559895</v>
       </c>
       <c r="M46" t="n">
         <v>503.0434474798852</v>
@@ -38192,7 +38192,7 @@
         <v>456.3173232546293</v>
       </c>
       <c r="P46" t="n">
-        <v>376.7906707218792</v>
+        <v>376.7906707218793</v>
       </c>
       <c r="Q46" t="n">
         <v>185.9251771358735</v>
